--- a/finance/calculator.xlsx
+++ b/finance/calculator.xlsx
@@ -1,34 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sun_xo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sun_xo/learn/py/finance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6B0A01-69BF-8443-9BD9-5B56D74367BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF9AFC8-0533-E943-ACD5-0D24CE9F189E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="1280" windowWidth="20220" windowHeight="12920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="500" windowWidth="22060" windowHeight="13620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="复利" sheetId="2" r:id="rId1"/>
-    <sheet name="可转债" sheetId="3" r:id="rId2"/>
-    <sheet name="期权" sheetId="4" r:id="rId3"/>
-    <sheet name="房产计算" sheetId="1" r:id="rId4"/>
+    <sheet name="估值指标" sheetId="6" r:id="rId2"/>
+    <sheet name="指数阈值" sheetId="5" r:id="rId3"/>
+    <sheet name="可转债" sheetId="3" r:id="rId4"/>
+    <sheet name="网格" sheetId="7" r:id="rId5"/>
+    <sheet name="期权" sheetId="4" r:id="rId6"/>
+    <sheet name="房产计算" sheetId="1" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="threashold" localSheetId="2">指数阈值!$A$1:$H$59</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{F4F3B9AB-227F-FD40-A03A-63A4BE957F33}" name="threashold" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/sun_xo/learn/py/finance/threashold.txt" space="1" consecutive="1">
+      <textFields count="7">
+        <textField/>
+        <textField type="text"/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="433">
   <si>
     <t>Fv = Pv (1 + i) ^ n</t>
   </si>
@@ -138,33 +169,18 @@
     <t>转股数</t>
   </si>
   <si>
-    <t>100 / 转股价</t>
-  </si>
-  <si>
     <t>转股溢价率</t>
   </si>
   <si>
-    <t>100 / (1 + 转股溢价率)</t>
-  </si>
-  <si>
     <t>转换价值</t>
   </si>
   <si>
-    <t>(转股价 - 正股价) / 正股价</t>
-  </si>
-  <si>
-    <t>可转债价格</t>
-  </si>
-  <si>
     <t>市价</t>
   </si>
   <si>
     <t>可转债面值</t>
   </si>
   <si>
-    <t>(100 - 转换价值) / 转换价值</t>
-  </si>
-  <si>
     <t>认购期权</t>
   </si>
   <si>
@@ -528,82 +544,842 @@
     <t>牛市认购价差策略</t>
   </si>
   <si>
-    <t>bf</t>
-  </si>
-  <si>
-    <t>bm</t>
-  </si>
-  <si>
-    <t>p0</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
-    <t>bc</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
     <t>bf = 100</t>
   </si>
   <si>
-    <t>正股价</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>n = 100/p0</t>
-  </si>
-  <si>
-    <t>bc  = p*n
-      = 100p/p0</t>
-  </si>
-  <si>
-    <t>转股数 * 正股价
-正股价 / 转股价 * 100</t>
-  </si>
-  <si>
-    <t>r = (p0-p)/p</t>
-  </si>
-  <si>
-    <t>bc = 100/(1+r)</t>
-  </si>
-  <si>
-    <t>r  = (100-bc)/bc</t>
-  </si>
-  <si>
-    <t>bm ≈ bc</t>
-  </si>
-  <si>
-    <t>市价，趋近于转换价值</t>
-  </si>
-  <si>
-    <t>合同约定，可下调</t>
-  </si>
-  <si>
     <t>Pv = Fv / (1+i*n)</t>
   </si>
   <si>
     <t>Fv = Pv(1+i*n)</t>
   </si>
   <si>
-    <t>加息(4-&gt;8)后，债券下跌</t>
-  </si>
-  <si>
     <t>基金高估后等比例赎回</t>
   </si>
   <si>
     <t>r = 1/(n-i+1)</t>
+  </si>
+  <si>
+    <t>银行加息3-&gt;8后
+企业债利息4-&gt;9
+市值下跌100-&gt;91.53</t>
+  </si>
+  <si>
+    <t>可转债市价</t>
+  </si>
+  <si>
+    <t>转股溢价</t>
+  </si>
+  <si>
+    <t>常量100</t>
+  </si>
+  <si>
+    <t>可转债的实际价值，= 转股数 * 正股价，
+或 = 正股价 / 转股价 * 100</t>
+  </si>
+  <si>
+    <t>搜特 (128100)</t>
+  </si>
+  <si>
+    <t>双低</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = 100 / 转股价</t>
+  </si>
+  <si>
+    <t>发行方定价并可下调</t>
+  </si>
+  <si>
+    <t>盈利收益率</t>
+  </si>
+  <si>
+    <t>指数代码</t>
+  </si>
+  <si>
+    <t>参考指标</t>
+  </si>
+  <si>
+    <t>低估阈值</t>
+  </si>
+  <si>
+    <t>高估阈值</t>
+  </si>
+  <si>
+    <t>历史最高值</t>
+  </si>
+  <si>
+    <t>历史最低值</t>
+  </si>
+  <si>
+    <t>上证红利</t>
+  </si>
+  <si>
+    <t>000015</t>
+  </si>
+  <si>
+    <t>50AH优选</t>
+  </si>
+  <si>
+    <t>950090</t>
+  </si>
+  <si>
+    <t>基本面50</t>
+  </si>
+  <si>
+    <t>000925</t>
+  </si>
+  <si>
+    <t>央视50</t>
+  </si>
+  <si>
+    <t>399550</t>
+  </si>
+  <si>
+    <t>中证红利</t>
+  </si>
+  <si>
+    <t>000922</t>
+  </si>
+  <si>
+    <t>300价值</t>
+  </si>
+  <si>
+    <t>000919</t>
+  </si>
+  <si>
+    <t>上证50</t>
+  </si>
+  <si>
+    <t>000016</t>
+  </si>
+  <si>
+    <t>上证180</t>
+  </si>
+  <si>
+    <t>000010</t>
+  </si>
+  <si>
+    <t>H股指数</t>
+  </si>
+  <si>
+    <t>HSCEI</t>
+  </si>
+  <si>
+    <t>恒生指数</t>
+  </si>
+  <si>
+    <t>HSI</t>
+  </si>
+  <si>
+    <t>市净率</t>
+  </si>
+  <si>
+    <t>银行行业</t>
+  </si>
+  <si>
+    <t>399986</t>
+  </si>
+  <si>
+    <t>地产行业</t>
+  </si>
+  <si>
+    <t>399393</t>
+  </si>
+  <si>
+    <t>证券行业</t>
+  </si>
+  <si>
+    <t>399975</t>
+  </si>
+  <si>
+    <t>军工行业</t>
+  </si>
+  <si>
+    <t>399967</t>
+  </si>
+  <si>
+    <t>环保</t>
+  </si>
+  <si>
+    <t>000827</t>
+  </si>
+  <si>
+    <t>中证基建</t>
+  </si>
+  <si>
+    <t>399995</t>
+  </si>
+  <si>
+    <t>建筑材料</t>
+  </si>
+  <si>
+    <t>931009</t>
+  </si>
+  <si>
+    <t>华宝油气</t>
+  </si>
+  <si>
+    <t>净值</t>
+  </si>
+  <si>
+    <t>市盈率</t>
+  </si>
+  <si>
+    <t>中证全指</t>
+  </si>
+  <si>
+    <t>000985</t>
+  </si>
+  <si>
+    <t>红利机会</t>
+  </si>
+  <si>
+    <t>CSPSADRP</t>
+  </si>
+  <si>
+    <t>500低波动</t>
+  </si>
+  <si>
+    <t>930782</t>
+  </si>
+  <si>
+    <t>500增强</t>
+  </si>
+  <si>
+    <t>000905</t>
+  </si>
+  <si>
+    <t>沪深300</t>
+  </si>
+  <si>
+    <t>000300</t>
+  </si>
+  <si>
+    <t>中证养老</t>
+  </si>
+  <si>
+    <t>399812</t>
+  </si>
+  <si>
+    <t>创业板</t>
+  </si>
+  <si>
+    <t>399006</t>
+  </si>
+  <si>
+    <t>深证100</t>
+  </si>
+  <si>
+    <t>399330</t>
+  </si>
+  <si>
+    <t>医药100</t>
+  </si>
+  <si>
+    <t>000978</t>
+  </si>
+  <si>
+    <t>中证医疗</t>
+  </si>
+  <si>
+    <t>399989</t>
+  </si>
+  <si>
+    <t>中证生物科技</t>
+  </si>
+  <si>
+    <t>930743</t>
+  </si>
+  <si>
+    <t>中证消费</t>
+  </si>
+  <si>
+    <t>000932</t>
+  </si>
+  <si>
+    <t>中证白酒</t>
+  </si>
+  <si>
+    <t>399997</t>
+  </si>
+  <si>
+    <t>食品饮料</t>
+  </si>
+  <si>
+    <t>930653</t>
+  </si>
+  <si>
+    <t>可选消费</t>
+  </si>
+  <si>
+    <t>000989</t>
+  </si>
+  <si>
+    <t>686000</t>
+  </si>
+  <si>
+    <t>消费红利</t>
+  </si>
+  <si>
+    <t>H30094</t>
+  </si>
+  <si>
+    <t>消费龙头</t>
+  </si>
+  <si>
+    <t>931068</t>
+  </si>
+  <si>
+    <t>沪港深消费50</t>
+  </si>
+  <si>
+    <t>931357</t>
+  </si>
+  <si>
+    <t>深证成指</t>
+  </si>
+  <si>
+    <t>399001</t>
+  </si>
+  <si>
+    <t>基本面60</t>
+  </si>
+  <si>
+    <t>399701</t>
+  </si>
+  <si>
+    <t>基本面120</t>
+  </si>
+  <si>
+    <t>399702</t>
+  </si>
+  <si>
+    <t>深证红利</t>
+  </si>
+  <si>
+    <t>399324</t>
+  </si>
+  <si>
+    <t>纳斯达克100</t>
+  </si>
+  <si>
+    <t>NDX</t>
+  </si>
+  <si>
+    <t>标普500</t>
+  </si>
+  <si>
+    <t>SPX</t>
+  </si>
+  <si>
+    <t>标普科技</t>
+  </si>
+  <si>
+    <t>S5INFT</t>
+  </si>
+  <si>
+    <t>美股消费</t>
+  </si>
+  <si>
+    <t>IXY</t>
+  </si>
+  <si>
+    <t>全球医疗</t>
+  </si>
+  <si>
+    <t>SPG120035</t>
+  </si>
+  <si>
+    <t>香港中小</t>
+  </si>
+  <si>
+    <t>SPHCMSHP</t>
+  </si>
+  <si>
+    <t>中概互联</t>
+  </si>
+  <si>
+    <t>H30533</t>
+  </si>
+  <si>
+    <t>市销率</t>
+  </si>
+  <si>
+    <t>A股龙头</t>
+  </si>
+  <si>
+    <t>HSCAIT</t>
+  </si>
+  <si>
+    <t>竞争力指数</t>
+  </si>
+  <si>
+    <t>931142</t>
+  </si>
+  <si>
+    <t>MSCIA股质量</t>
+  </si>
+  <si>
+    <t>707717</t>
+  </si>
+  <si>
+    <t>科创50</t>
+  </si>
+  <si>
+    <t>000688</t>
+  </si>
+  <si>
+    <t>家用电器</t>
+  </si>
+  <si>
+    <t>930697</t>
+  </si>
+  <si>
+    <t>高估阈值(&lt;)</t>
+  </si>
+  <si>
+    <t>低估阈值(&gt;)</t>
+  </si>
+  <si>
+    <t>距最低</t>
+  </si>
+  <si>
+    <t>距低估</t>
+  </si>
+  <si>
+    <t>face value (fv)</t>
+  </si>
+  <si>
+    <t>conversion value (cv)</t>
+  </si>
+  <si>
+    <t>share price (sp)</t>
+  </si>
+  <si>
+    <t>conversion share price (csp)</t>
+  </si>
+  <si>
+    <t>cv = sp * n
+cv = (sp/csp) *100</t>
+  </si>
+  <si>
+    <t>n = 100/csp</t>
+  </si>
+  <si>
+    <t>bond price (bp)</t>
+  </si>
+  <si>
+    <t>premium</t>
+  </si>
+  <si>
+    <t>p = bp - cv</t>
+  </si>
+  <si>
+    <t>premium rate (pr)</t>
+  </si>
+  <si>
+    <t>pr = bp / cv
+pr = (bp - cv) / cv</t>
+  </si>
+  <si>
+    <t>正股市价</t>
+  </si>
+  <si>
+    <t>dl = bp + pr*100</t>
+  </si>
+  <si>
+    <t>double low index (dl)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = 可转债市价 - 转换价值</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = 转股溢价 / 转换价值
+ = (可转债市价 - 转换价值) / 转换价值
+股性因子，越低收益越高</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = 可转债市价+ 转股溢价率 * 100
+双因子，越低越好</t>
+  </si>
+  <si>
+    <t>由市场定价</t>
+  </si>
+  <si>
+    <t>由市场定价，理论上等于转换价值，有正负溢价
+ &gt; 130可能触发强赎
+债性因子，越低风险越小</t>
+  </si>
+  <si>
+    <t>平均存续期 (年)</t>
+  </si>
+  <si>
+    <t>历史数据</t>
+  </si>
+  <si>
+    <t>平均收盘价 (元)</t>
+  </si>
+  <si>
+    <t>平均赎回价 (元)</t>
+  </si>
+  <si>
+    <t>转股率</t>
+  </si>
+  <si>
+    <t>假设成本价(元)</t>
+  </si>
+  <si>
+    <t>盈利期望 (元)</t>
+  </si>
+  <si>
+    <t>average duration (ad)</t>
+  </si>
+  <si>
+    <t>conversion rate (cr)</t>
+  </si>
+  <si>
+    <t>assumed cost price (c)</t>
+  </si>
+  <si>
+    <t>average closing price (ac)</t>
+  </si>
+  <si>
+    <t>average redemption price (ar)</t>
+  </si>
+  <si>
+    <t>期望年化利率</t>
+  </si>
+  <si>
+    <t>expected interest</t>
+  </si>
+  <si>
+    <t>expected annualized rate</t>
+  </si>
+  <si>
+    <t>ep = ac*cr + ar*(1-cr) - c</t>
+  </si>
+  <si>
+    <t>er = ep / c / ad</t>
+  </si>
+  <si>
+    <t>估值指标</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>动态市盈率</t>
+  </si>
+  <si>
+    <t>E=最近1个年报的净利润</t>
+  </si>
+  <si>
+    <t>E=最近4个季报的净利润</t>
+  </si>
+  <si>
+    <t>E=预估下1年度的净利润</t>
+  </si>
+  <si>
+    <t>适合流通性好、盈利稳定的品种</t>
+  </si>
+  <si>
+    <t>EP = E/P</t>
+  </si>
+  <si>
+    <t>PE = P/E</t>
+  </si>
+  <si>
+    <t>约等于市盈率的倒数</t>
+  </si>
+  <si>
+    <t>市值</t>
+  </si>
+  <si>
+    <t>盈利</t>
+  </si>
+  <si>
+    <t>净资产</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>PB = P/B</t>
+  </si>
+  <si>
+    <t>净资产收益率</t>
+  </si>
+  <si>
+    <t>ROE= E/B</t>
+  </si>
+  <si>
+    <t>适合资产价值稳定的品种</t>
+  </si>
+  <si>
+    <t>衡量资产运作效率</t>
+  </si>
+  <si>
+    <t>静态市盈率 LYR</t>
+  </si>
+  <si>
+    <t>滚动市盈率 TTM</t>
+  </si>
+  <si>
+    <t>股票价格</t>
+  </si>
+  <si>
+    <t>网格序号</t>
+  </si>
+  <si>
+    <t>每格涨跌幅</t>
+  </si>
+  <si>
+    <t>网格资金</t>
+  </si>
+  <si>
+    <t>该价格买入股数</t>
+  </si>
+  <si>
+    <t>买入资金</t>
+  </si>
+  <si>
+    <t>该价格卖出股数</t>
+  </si>
+  <si>
+    <t>总资金</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>4星</t>
+  </si>
+  <si>
+    <t>5星</t>
+  </si>
+  <si>
+    <t>3星</t>
+  </si>
+  <si>
+    <t>2星</t>
+  </si>
+  <si>
+    <t>1星</t>
+  </si>
+  <si>
+    <t>设2011年1月中证全指5星级阈值为1657.7</t>
+  </si>
+  <si>
+    <t>阈值t = 1657.7 * 1.1^(y-2011) * (1+(m-1)/120) / 0.8^(5-s)</t>
+  </si>
+  <si>
+    <t>例如 2021年12月，中证全指4星级阈值为</t>
+  </si>
+  <si>
+    <t>同时设中证全指年增长10%，指数每下跌20%，星级加1</t>
+  </si>
+  <si>
+    <t>求该日期之后的猴(y)年马(m)月某(s)星级阈值t</t>
+  </si>
+  <si>
+    <t>可转债</t>
+  </si>
+  <si>
+    <t>价格元)</t>
+  </si>
+  <si>
+    <t>网格资金(元)</t>
+  </si>
+  <si>
+    <t>涨跌幅(元)</t>
+  </si>
+  <si>
+    <t>累计持仓(手)</t>
+  </si>
+  <si>
+    <t>累计持仓(元)</t>
+  </si>
+  <si>
+    <t>条件单</t>
+  </si>
+  <si>
+    <t>涨跌类型</t>
+  </si>
+  <si>
+    <t>差价</t>
+  </si>
+  <si>
+    <t>上涨卖出(元)</t>
+  </si>
+  <si>
+    <t>下跌买入(元)</t>
+  </si>
+  <si>
+    <t>网内最大亏损(元)</t>
+  </si>
+  <si>
+    <t>网内最大亏损(%)</t>
+  </si>
+  <si>
+    <t>回落卖出(元)</t>
+  </si>
+  <si>
+    <t>反弹买入(元)</t>
+  </si>
+  <si>
+    <t>卖出价</t>
+  </si>
+  <si>
+    <t>即时买5价</t>
+  </si>
+  <si>
+    <t>买入价</t>
+  </si>
+  <si>
+    <t>即时卖5价</t>
+  </si>
+  <si>
+    <t>最低价(元)</t>
+  </si>
+  <si>
+    <t>最高价(元)</t>
+  </si>
+  <si>
+    <t>集思录</t>
+  </si>
+  <si>
+    <t>标准</t>
+  </si>
+  <si>
+    <t>转股期内</t>
+  </si>
+  <si>
+    <t>剩余期限 &gt; 1年</t>
+  </si>
+  <si>
+    <t>价格跨度 &gt; 50</t>
+  </si>
+  <si>
+    <t>评级 ≥ AA-</t>
+  </si>
+  <si>
+    <t>价格 ≤ 130</t>
+  </si>
+  <si>
+    <t>溢价率 ≤ 30%</t>
+  </si>
+  <si>
+    <t>波动率 &gt; 20%</t>
+  </si>
+  <si>
+    <t>华宝智投</t>
+  </si>
+  <si>
+    <t>剩余规模 &gt; 90%</t>
+  </si>
+  <si>
+    <t>130-10*底仓份数</t>
+  </si>
+  <si>
+    <t>筛选</t>
+  </si>
+  <si>
+    <t>证券ETF</t>
+  </si>
+  <si>
+    <t>价格上线</t>
+  </si>
+  <si>
+    <t>价格下线</t>
+  </si>
+  <si>
+    <t>网格大小</t>
+  </si>
+  <si>
+    <t>中证100</t>
+  </si>
+  <si>
+    <t>深红利</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>回落卖出</t>
+  </si>
+  <si>
+    <t>累计回落</t>
+  </si>
+  <si>
+    <t>委托股数</t>
+  </si>
+  <si>
+    <t>卖出条件</t>
+  </si>
+  <si>
+    <t>保底价触发</t>
+  </si>
+  <si>
+    <t>保留利润</t>
+  </si>
+  <si>
+    <t>触发基准价(元)</t>
+  </si>
+  <si>
+    <t>委托金额(元)</t>
+  </si>
+  <si>
+    <t>https://legulegu.com/stockdata/sw-industry?industryCode=801193.SI</t>
+  </si>
+  <si>
+    <t>ETF网格</t>
+  </si>
+  <si>
+    <t>SH512880</t>
+  </si>
+  <si>
+    <t>P(211231)</t>
+  </si>
+  <si>
+    <t>PB上沿</t>
+  </si>
+  <si>
+    <t>PB下沿</t>
+  </si>
+  <si>
+    <t>当前PB</t>
+  </si>
+  <si>
+    <t>BookValue</t>
+  </si>
+  <si>
+    <t>P上沿</t>
+  </si>
+  <si>
+    <t>P下沿</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -621,6 +1397,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -653,7 +1436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -669,6 +1452,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,6 +1485,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="threashold" connectionId="1" xr16:uid="{0AA6780A-68B1-064D-9186-D9C820837BE2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -986,8 +1790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CF6621-2E4F-0F48-AB53-C7E606EEF51B}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1138,14 +1942,14 @@
       <c r="D9" s="5"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>186</v>
+    <row r="10" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B11" s="3">
         <v>100</v>
@@ -1163,17 +1967,17 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B12" s="8">
         <f>C12/(1+D12*E12)</f>
-        <v>93.103448275862078</v>
+        <v>91.525423728813564</v>
       </c>
       <c r="C12" s="3">
         <v>108</v>
       </c>
       <c r="D12" s="1">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1184,7 +1988,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1219,7 +2023,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="B16" s="1">
         <f>1/(10-B15+1)</f>
@@ -1278,139 +2082,465 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14035F00-6F61-2846-A9B1-038887E13D80}">
-  <dimension ref="A2:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1488808B-A158-284F-9930-D604D6952601}">
+  <dimension ref="A3:F39"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A17" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>344</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>345</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>177</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
-        <v>180</v>
+      <c r="B12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B14" t="s">
+        <v>347</v>
+      </c>
+      <c r="C14" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C15" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s">
+        <v>364</v>
+      </c>
+      <c r="C19" t="s">
+        <v>363</v>
+      </c>
+      <c r="D19" t="s">
+        <v>365</v>
+      </c>
+      <c r="E19" t="s">
+        <v>366</v>
+      </c>
+      <c r="F19" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2022</v>
+      </c>
+      <c r="B20" s="18">
+        <f>C20*(1-0.2)</f>
+        <v>4729.6000000000004</v>
+      </c>
+      <c r="C20" s="18">
+        <v>5912</v>
+      </c>
+      <c r="D20" s="18">
+        <f>C20/0.8</f>
+        <v>7390</v>
+      </c>
+      <c r="E20" s="18">
+        <f t="shared" ref="E20:F20" si="0">D20/0.8</f>
+        <v>9237.5</v>
+      </c>
+      <c r="F20" s="18">
+        <f t="shared" si="0"/>
+        <v>11546.875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2021</v>
+      </c>
+      <c r="B21" s="18">
+        <f>C21*(1-0.2)</f>
+        <v>4299.6363636363631</v>
+      </c>
+      <c r="C21" s="18">
+        <f t="shared" ref="C21:C31" si="1">$C$20/POWER(1.1, $A$20-A21)</f>
+        <v>5374.545454545454</v>
+      </c>
+      <c r="D21" s="18">
+        <f>C21/0.8</f>
+        <v>6718.1818181818171</v>
+      </c>
+      <c r="E21" s="18">
+        <f t="shared" ref="E21:F21" si="2">D21/0.8</f>
+        <v>8397.7272727272702</v>
+      </c>
+      <c r="F21" s="18">
+        <f t="shared" si="2"/>
+        <v>10497.159090909086</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2020</v>
+      </c>
+      <c r="B22" s="18">
+        <f t="shared" ref="B22:B31" si="3">C22*(1-0.2)</f>
+        <v>3908.7603305785119</v>
+      </c>
+      <c r="C22" s="18">
+        <f t="shared" si="1"/>
+        <v>4885.9504132231395</v>
+      </c>
+      <c r="D22" s="18">
+        <f t="shared" ref="D22:F31" si="4">C22/0.8</f>
+        <v>6107.438016528924</v>
+      </c>
+      <c r="E22" s="18">
+        <f t="shared" si="4"/>
+        <v>7634.2975206611545</v>
+      </c>
+      <c r="F22" s="18">
+        <f t="shared" si="4"/>
+        <v>9542.8719008264434</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="18">
+        <f t="shared" si="3"/>
+        <v>3553.4184823441014</v>
+      </c>
+      <c r="C23" s="18">
+        <f t="shared" si="1"/>
+        <v>4441.7731029301267</v>
+      </c>
+      <c r="D23" s="18">
+        <f t="shared" si="4"/>
+        <v>5552.2163786626579</v>
+      </c>
+      <c r="E23" s="18">
+        <f t="shared" ref="E23:F23" si="5">D23/0.8</f>
+        <v>6940.2704733283217</v>
+      </c>
+      <c r="F23" s="18">
+        <f t="shared" si="5"/>
+        <v>8675.3380916604019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2018</v>
+      </c>
+      <c r="B24" s="18">
+        <f t="shared" si="3"/>
+        <v>3230.3804384946379</v>
+      </c>
+      <c r="C24" s="18">
+        <f t="shared" si="1"/>
+        <v>4037.975548118297</v>
+      </c>
+      <c r="D24" s="18">
+        <f t="shared" si="4"/>
+        <v>5047.4694351478711</v>
+      </c>
+      <c r="E24" s="18">
+        <f t="shared" ref="E24:F24" si="6">D24/0.8</f>
+        <v>6309.3367939348382</v>
+      </c>
+      <c r="F24" s="18">
+        <f t="shared" si="6"/>
+        <v>7886.670992418547</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2017</v>
+      </c>
+      <c r="B25" s="18">
+        <f t="shared" si="3"/>
+        <v>2936.7094895405794</v>
+      </c>
+      <c r="C25" s="18">
+        <f t="shared" si="1"/>
+        <v>3670.8868619257241</v>
+      </c>
+      <c r="D25" s="18">
+        <f t="shared" si="4"/>
+        <v>4588.6085774071553</v>
+      </c>
+      <c r="E25" s="18">
+        <f t="shared" ref="E25:F25" si="7">D25/0.8</f>
+        <v>5735.7607217589439</v>
+      </c>
+      <c r="F25" s="18">
+        <f t="shared" si="7"/>
+        <v>7169.7009021986796</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2016</v>
+      </c>
+      <c r="B26" s="18">
+        <f t="shared" si="3"/>
+        <v>2669.7358995823447</v>
+      </c>
+      <c r="C26" s="18">
+        <f t="shared" si="1"/>
+        <v>3337.1698744779305</v>
+      </c>
+      <c r="D26" s="18">
+        <f t="shared" si="4"/>
+        <v>4171.4623430974125</v>
+      </c>
+      <c r="E26" s="18">
+        <f t="shared" ref="E26:F26" si="8">D26/0.8</f>
+        <v>5214.3279288717649</v>
+      </c>
+      <c r="F26" s="18">
+        <f t="shared" si="8"/>
+        <v>6517.9099110897059</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2015</v>
+      </c>
+      <c r="B27" s="18">
+        <f t="shared" si="3"/>
+        <v>2427.0326359839491</v>
+      </c>
+      <c r="C27" s="18">
+        <f t="shared" si="1"/>
+        <v>3033.7907949799364</v>
+      </c>
+      <c r="D27" s="18">
+        <f t="shared" si="4"/>
+        <v>3792.2384937249203</v>
+      </c>
+      <c r="E27" s="18">
+        <f t="shared" ref="E27:F27" si="9">D27/0.8</f>
+        <v>4740.2981171561505</v>
+      </c>
+      <c r="F27" s="18">
+        <f t="shared" si="9"/>
+        <v>5925.3726464451875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2014</v>
+      </c>
+      <c r="B28" s="18">
+        <f t="shared" si="3"/>
+        <v>2206.393305439954</v>
+      </c>
+      <c r="C28" s="18">
+        <f t="shared" si="1"/>
+        <v>2757.9916317999423</v>
+      </c>
+      <c r="D28" s="18">
+        <f t="shared" si="4"/>
+        <v>3447.4895397499276</v>
+      </c>
+      <c r="E28" s="18">
+        <f t="shared" ref="E28:F28" si="10">D28/0.8</f>
+        <v>4309.3619246874096</v>
+      </c>
+      <c r="F28" s="18">
+        <f t="shared" si="10"/>
+        <v>5386.7024058592615</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2013</v>
+      </c>
+      <c r="B29" s="18">
+        <f t="shared" si="3"/>
+        <v>2005.8120958545035</v>
+      </c>
+      <c r="C29" s="18">
+        <f t="shared" si="1"/>
+        <v>2507.2651198181293</v>
+      </c>
+      <c r="D29" s="18">
+        <f t="shared" si="4"/>
+        <v>3134.0813997726614</v>
+      </c>
+      <c r="E29" s="18">
+        <f t="shared" ref="E29:F29" si="11">D29/0.8</f>
+        <v>3917.6017497158264</v>
+      </c>
+      <c r="F29" s="18">
+        <f t="shared" si="11"/>
+        <v>4897.0021871447825</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2012</v>
+      </c>
+      <c r="B30" s="18">
+        <f t="shared" si="3"/>
+        <v>1823.4655416859123</v>
+      </c>
+      <c r="C30" s="18">
+        <f t="shared" si="1"/>
+        <v>2279.3319271073901</v>
+      </c>
+      <c r="D30" s="18">
+        <f t="shared" si="4"/>
+        <v>2849.1649088842373</v>
+      </c>
+      <c r="E30" s="18">
+        <f t="shared" ref="E30:F30" si="12">D30/0.8</f>
+        <v>3561.4561361052965</v>
+      </c>
+      <c r="F30" s="18">
+        <f t="shared" si="12"/>
+        <v>4451.8201701316202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2011</v>
+      </c>
+      <c r="B31" s="19">
+        <f t="shared" si="3"/>
+        <v>1657.6959469871927</v>
+      </c>
+      <c r="C31" s="18">
+        <f t="shared" si="1"/>
+        <v>2072.1199337339908</v>
+      </c>
+      <c r="D31" s="18">
+        <f t="shared" si="4"/>
+        <v>2590.1499171674882</v>
+      </c>
+      <c r="E31" s="18">
+        <f t="shared" ref="E31:F31" si="13">D31/0.8</f>
+        <v>3237.6873964593601</v>
+      </c>
+      <c r="F31" s="18">
+        <f t="shared" si="13"/>
+        <v>4047.1092455742</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <f>1657.7 * 1.1^(2021-2011) * (1+(12-1)/120) / 0.8^(5-4)</f>
+        <v>5867.2264663553979</v>
       </c>
     </row>
   </sheetData>
@@ -1419,6 +2549,2847 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DEE4429-76A5-6741-B295-374B2D096E0C}">
+  <dimension ref="A1:K59"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" t="s">
+        <v>294</v>
+      </c>
+      <c r="J1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H2" s="5">
+        <v>8.6099999999999996E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <f t="shared" ref="J2" si="0">(D2-H2)/(D2-E2)</f>
+        <v>0.38611111111111135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.105</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I15" si="1">(G3-H3)/(G3-D3)</f>
+        <v>0.92424242424242442</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="H4" s="5">
+        <v>9.7899999999999987E-2</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <f t="shared" ref="J4" si="2">(D4-H4)/(D4-E4)</f>
+        <v>5.8333333333333841E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.1003</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99545454545454548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="H6" s="5">
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <f t="shared" ref="J6:J7" si="3">(D6-H6)/(D6-E6)</f>
+        <v>0.34444444444444461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="H7" s="5">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7777777777777801E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="H8" s="5">
+        <v>9.1499999999999998E-2</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
+        <f>(D8-H8)/(D8-E8)</f>
+        <v>0.2361111111111113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="H9" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
+        <f>(D9-H9)/(D9-E9)</f>
+        <v>0.34722222222222249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H10" s="5">
+        <v>9.4200000000000006E-2</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
+        <f>(D10-H10)/(D10-E10)</f>
+        <v>0.16111111111111109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="H11" s="5">
+        <v>8.9099999999999999E-2</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
+        <f>(D11-H11)/(D11-E11)</f>
+        <v>0.30277777777777792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" t="s">
+        <v>182</v>
+      </c>
+      <c r="G13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14">
+        <v>0.9</v>
+      </c>
+      <c r="E14">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F14">
+        <v>1.4</v>
+      </c>
+      <c r="G14">
+        <v>0.75</v>
+      </c>
+      <c r="H14">
+        <v>0.88</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.86666666666666659</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15">
+        <v>1.6</v>
+      </c>
+      <c r="E15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>1.2</v>
+      </c>
+      <c r="H15">
+        <v>1.2</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16">
+        <v>1.6</v>
+      </c>
+      <c r="E16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F16">
+        <v>4.8</v>
+      </c>
+      <c r="G16">
+        <v>1.05</v>
+      </c>
+      <c r="H16">
+        <v>1.88</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1">
+        <f t="shared" ref="J16" si="4">(D16-H16)/(D16-E16)</f>
+        <v>0.46666666666666629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" t="s">
+        <v>204</v>
+      </c>
+      <c r="D17">
+        <v>2.6</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G17">
+        <v>2.1</v>
+      </c>
+      <c r="H17">
+        <v>4.25</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="K17" s="1">
+        <f>(E17-H17)/(E17-F17)</f>
+        <v>4.8076923076923087E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>5.9</v>
+      </c>
+      <c r="G18">
+        <v>1.82</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E19">
+        <v>1.8</v>
+      </c>
+      <c r="F19">
+        <v>3.6</v>
+      </c>
+      <c r="G19">
+        <v>0.92</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20">
+        <v>1.8</v>
+      </c>
+      <c r="E20">
+        <v>2.1</v>
+      </c>
+      <c r="F20">
+        <v>3.1</v>
+      </c>
+      <c r="G20">
+        <v>1.4</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E21">
+        <v>0.7</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" t="s">
+        <v>183</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>21</v>
+      </c>
+      <c r="F24">
+        <v>54</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C25" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>30</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <v>60</v>
+      </c>
+      <c r="G26">
+        <v>17</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>40</v>
+      </c>
+      <c r="F27">
+        <v>93</v>
+      </c>
+      <c r="G27">
+        <v>17</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D28">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>17</v>
+      </c>
+      <c r="F28">
+        <v>49</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
+      <c r="H28">
+        <v>13.4</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1">
+        <f>(D28-H28)/(D28-E28)</f>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>232</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C29" t="s">
+        <v>221</v>
+      </c>
+      <c r="D29">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="F29">
+        <v>36</v>
+      </c>
+      <c r="G29">
+        <v>17</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C30" t="s">
+        <v>221</v>
+      </c>
+      <c r="D30">
+        <v>25</v>
+      </c>
+      <c r="E30">
+        <v>45</v>
+      </c>
+      <c r="F30">
+        <v>138</v>
+      </c>
+      <c r="G30">
+        <v>27</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>236</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31" t="s">
+        <v>221</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>24</v>
+      </c>
+      <c r="F31">
+        <v>64</v>
+      </c>
+      <c r="G31">
+        <v>12</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C32" t="s">
+        <v>221</v>
+      </c>
+      <c r="D32">
+        <v>28</v>
+      </c>
+      <c r="E32">
+        <v>36</v>
+      </c>
+      <c r="F32">
+        <v>63</v>
+      </c>
+      <c r="G32">
+        <v>23</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>240</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D33">
+        <v>55</v>
+      </c>
+      <c r="E33">
+        <v>75</v>
+      </c>
+      <c r="F33">
+        <v>140</v>
+      </c>
+      <c r="G33">
+        <v>32</v>
+      </c>
+      <c r="H33" s="3">
+        <v>50</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" ref="I33:I34" si="5">(G33-H33)/(G33-D33)</f>
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>242</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C34" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34">
+        <v>57</v>
+      </c>
+      <c r="E34">
+        <v>81</v>
+      </c>
+      <c r="F34">
+        <v>135</v>
+      </c>
+      <c r="G34">
+        <v>33</v>
+      </c>
+      <c r="H34">
+        <v>52.75</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="5"/>
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35">
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <v>40</v>
+      </c>
+      <c r="F35">
+        <v>53</v>
+      </c>
+      <c r="G35">
+        <v>17</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>246</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C36" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36">
+        <v>30</v>
+      </c>
+      <c r="E36">
+        <v>40</v>
+      </c>
+      <c r="F36">
+        <v>71</v>
+      </c>
+      <c r="G36">
+        <v>15</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>248</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" t="s">
+        <v>221</v>
+      </c>
+      <c r="D37">
+        <v>30</v>
+      </c>
+      <c r="E37">
+        <v>40</v>
+      </c>
+      <c r="F37">
+        <v>65</v>
+      </c>
+      <c r="G37">
+        <v>18</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" t="s">
+        <v>221</v>
+      </c>
+      <c r="D38">
+        <v>18</v>
+      </c>
+      <c r="E38">
+        <v>26</v>
+      </c>
+      <c r="F38">
+        <v>45</v>
+      </c>
+      <c r="G38">
+        <v>15</v>
+      </c>
+      <c r="H38">
+        <v>29.39</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1">
+        <f t="shared" ref="K38:K50" si="6">(E38-H38)/(E38-F38)</f>
+        <v>0.17842105263157898</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>250</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C39" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>5.3</v>
+      </c>
+      <c r="G39">
+        <v>1.7</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>253</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C40" t="s">
+        <v>221</v>
+      </c>
+      <c r="D40">
+        <v>25</v>
+      </c>
+      <c r="E40">
+        <v>33</v>
+      </c>
+      <c r="F40">
+        <v>45</v>
+      </c>
+      <c r="G40">
+        <v>11</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C41" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41">
+        <v>24</v>
+      </c>
+      <c r="E41">
+        <v>32</v>
+      </c>
+      <c r="F41">
+        <v>45</v>
+      </c>
+      <c r="G41">
+        <v>16</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>257</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C42" t="s">
+        <v>221</v>
+      </c>
+      <c r="D42">
+        <v>33</v>
+      </c>
+      <c r="E42">
+        <v>42</v>
+      </c>
+      <c r="F42">
+        <v>56</v>
+      </c>
+      <c r="G42">
+        <v>25</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>259</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C43" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43">
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <v>30</v>
+      </c>
+      <c r="F43">
+        <v>62</v>
+      </c>
+      <c r="G43">
+        <v>11</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>261</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C44" t="s">
+        <v>221</v>
+      </c>
+      <c r="D44">
+        <v>17</v>
+      </c>
+      <c r="E44">
+        <v>20</v>
+      </c>
+      <c r="F44">
+        <v>60</v>
+      </c>
+      <c r="G44">
+        <v>12</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>263</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="C45" t="s">
+        <v>221</v>
+      </c>
+      <c r="D45">
+        <v>18</v>
+      </c>
+      <c r="E45">
+        <v>22</v>
+      </c>
+      <c r="F45">
+        <v>60</v>
+      </c>
+      <c r="G45">
+        <v>13</v>
+      </c>
+      <c r="H45">
+        <v>20.58</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1">
+        <f>(D45-H45)/(D45-E45)</f>
+        <v>0.64499999999999957</v>
+      </c>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>265</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C46" t="s">
+        <v>221</v>
+      </c>
+      <c r="D46">
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <v>22</v>
+      </c>
+      <c r="F46">
+        <v>44</v>
+      </c>
+      <c r="G46">
+        <v>11</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>267</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C47" t="s">
+        <v>221</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47">
+        <v>30</v>
+      </c>
+      <c r="F47">
+        <v>85</v>
+      </c>
+      <c r="G47">
+        <v>15</v>
+      </c>
+      <c r="H47">
+        <v>31.65</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1">
+        <f t="shared" si="6"/>
+        <v>2.9999999999999975E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>269</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C48" t="s">
+        <v>221</v>
+      </c>
+      <c r="D48">
+        <v>15</v>
+      </c>
+      <c r="E48">
+        <v>25</v>
+      </c>
+      <c r="F48">
+        <v>44</v>
+      </c>
+      <c r="G48">
+        <v>5.8</v>
+      </c>
+      <c r="H48">
+        <v>25.76</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1">
+        <f t="shared" si="6"/>
+        <v>4.0000000000000084E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>271</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C49" t="s">
+        <v>221</v>
+      </c>
+      <c r="D49">
+        <v>21</v>
+      </c>
+      <c r="E49">
+        <v>30</v>
+      </c>
+      <c r="F49">
+        <v>90</v>
+      </c>
+      <c r="G49">
+        <v>15</v>
+      </c>
+      <c r="H49">
+        <v>31.88</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1">
+        <f t="shared" si="6"/>
+        <v>3.1333333333333317E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>273</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C50" t="s">
+        <v>221</v>
+      </c>
+      <c r="D50">
+        <v>21</v>
+      </c>
+      <c r="E50">
+        <v>30</v>
+      </c>
+      <c r="F50">
+        <v>45</v>
+      </c>
+      <c r="G50">
+        <v>15</v>
+      </c>
+      <c r="H50">
+        <v>36.15</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1">
+        <f t="shared" si="6"/>
+        <v>0.40999999999999992</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>275</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C51" t="s">
+        <v>221</v>
+      </c>
+      <c r="D51">
+        <v>21</v>
+      </c>
+      <c r="E51">
+        <v>30</v>
+      </c>
+      <c r="F51">
+        <v>45</v>
+      </c>
+      <c r="G51">
+        <v>15</v>
+      </c>
+      <c r="H51">
+        <v>29.45</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1">
+        <f t="shared" ref="J51" si="7">(D51-H51)/(D51-E51)</f>
+        <v>0.93888888888888877</v>
+      </c>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>277</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="C52" t="s">
+        <v>221</v>
+      </c>
+      <c r="D52">
+        <v>12</v>
+      </c>
+      <c r="E52">
+        <v>17</v>
+      </c>
+      <c r="F52">
+        <v>20</v>
+      </c>
+      <c r="G52">
+        <v>8.4</v>
+      </c>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>279</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C53" t="s">
+        <v>281</v>
+      </c>
+      <c r="D53">
+        <v>5.6</v>
+      </c>
+      <c r="E53">
+        <v>8</v>
+      </c>
+      <c r="F53">
+        <v>12.8</v>
+      </c>
+      <c r="G53">
+        <v>3.47</v>
+      </c>
+      <c r="H53">
+        <v>4.34</v>
+      </c>
+      <c r="I53" s="1">
+        <f>(G53-H53)/(G53-D53)</f>
+        <v>0.40845070422535207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>282</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="C54" t="s">
+        <v>221</v>
+      </c>
+      <c r="D54">
+        <v>11</v>
+      </c>
+      <c r="E54">
+        <v>13</v>
+      </c>
+      <c r="F54">
+        <v>15</v>
+      </c>
+      <c r="G54">
+        <v>8</v>
+      </c>
+      <c r="H54">
+        <v>9.99</v>
+      </c>
+      <c r="I54" s="1">
+        <f>(G54-H54)/(G54-D54)</f>
+        <v>0.66333333333333344</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>284</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="C55" t="s">
+        <v>221</v>
+      </c>
+      <c r="D55">
+        <v>13</v>
+      </c>
+      <c r="E55">
+        <v>18</v>
+      </c>
+      <c r="F55">
+        <v>23</v>
+      </c>
+      <c r="G55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>286</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C56" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56">
+        <v>26</v>
+      </c>
+      <c r="E56">
+        <v>38</v>
+      </c>
+      <c r="F56">
+        <v>55</v>
+      </c>
+      <c r="G56">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>288</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C57" t="s">
+        <v>221</v>
+      </c>
+      <c r="D57">
+        <v>50</v>
+      </c>
+      <c r="E57">
+        <v>80</v>
+      </c>
+      <c r="F57">
+        <v>100</v>
+      </c>
+      <c r="G57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>290</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C58" t="s">
+        <v>221</v>
+      </c>
+      <c r="D58">
+        <v>17</v>
+      </c>
+      <c r="E58">
+        <v>20</v>
+      </c>
+      <c r="F58">
+        <v>28</v>
+      </c>
+      <c r="G58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B59" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14035F00-6F61-2846-A9B1-038887E13D80}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="E4" s="14">
+        <f>100/E3</f>
+        <v>61.728395061728392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="E6" s="14">
+        <f>E4*E5</f>
+        <v>98.148148148148152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13">
+        <v>107.544</v>
+      </c>
+      <c r="H7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="E8" s="14">
+        <f>E7-E6</f>
+        <v>9.3958518518518446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="E9" s="16">
+        <f>E8/E6</f>
+        <v>9.5731320754716909E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="E10" s="14">
+        <f>E7+E9*100</f>
+        <v>117.11713207547169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="D13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="D14">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="D16">
+        <v>164.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D17">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="C18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D18">
+        <f>D16*D15+D17*(1-D15)-D13</f>
+        <v>41.239999999999981</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="C19" t="s">
+        <v>331</v>
+      </c>
+      <c r="D19" s="1">
+        <f>D18/D13/D14</f>
+        <v>0.15910493827160485</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDC7B8B-DB21-EB49-B4A8-8BEBC5ED15A7}">
+  <dimension ref="A2:L51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="0">E4</f>
+        <v>1000</v>
+      </c>
+      <c r="H3">
+        <f>B3*G3</f>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="E4">
+        <f>INT(D4/B4/100)*100</f>
+        <v>1000</v>
+      </c>
+      <c r="F4">
+        <f>E4*B4</f>
+        <v>10000</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H12" si="1">B4*G4</f>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
+      </c>
+      <c r="E5">
+        <f>INT(D5/B5/100)*100</f>
+        <v>1100</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F13" si="2">E5*B5</f>
+        <v>9900</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>8.1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D6">
+        <v>10000</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E13" si="3">INT(D6/B6/100)*100</f>
+        <v>1200</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>9720</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>10530</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>7.29</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D7">
+        <v>10000</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>1300</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>9477</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>10935</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>6.65</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D8">
+        <v>10000</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>9975</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>10640</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>5.9</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D9">
+        <v>10000</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>9440</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>10620</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>5.31</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D10">
+        <v>10000</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>1800</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>9558</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>10620</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>4.78</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <v>10000</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>9560</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>2300</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>10994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>4.2</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D12">
+        <v>10000</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>2300</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>9660</v>
+      </c>
+      <c r="G12">
+        <f>E13</f>
+        <v>2500</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>3.87</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D13">
+        <v>10000</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>2500</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>9675</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>362</v>
+      </c>
+      <c r="F14">
+        <f>SUM(F4:F13)</f>
+        <v>96965</v>
+      </c>
+      <c r="H14">
+        <f>SUM(H3:H12)</f>
+        <v>107639</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>406</v>
+      </c>
+      <c r="B18" t="s">
+        <v>394</v>
+      </c>
+      <c r="F18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>395</v>
+      </c>
+      <c r="B19" t="s">
+        <v>399</v>
+      </c>
+      <c r="C19" t="s">
+        <v>400</v>
+      </c>
+      <c r="D19" t="s">
+        <v>401</v>
+      </c>
+      <c r="E19" t="s">
+        <v>396</v>
+      </c>
+      <c r="F19" t="s">
+        <v>398</v>
+      </c>
+      <c r="G19" t="s">
+        <v>402</v>
+      </c>
+      <c r="H19" t="s">
+        <v>397</v>
+      </c>
+      <c r="I19" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>355</v>
+      </c>
+      <c r="B21" t="s">
+        <v>374</v>
+      </c>
+      <c r="C21" t="s">
+        <v>376</v>
+      </c>
+      <c r="D21" t="s">
+        <v>375</v>
+      </c>
+      <c r="E21" t="s">
+        <v>377</v>
+      </c>
+      <c r="F21" t="s">
+        <v>378</v>
+      </c>
+      <c r="G21" t="s">
+        <v>384</v>
+      </c>
+      <c r="H21" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>120</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <f>B23*10</f>
+        <v>1200</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f>SUM($D$22:D23)</f>
+        <v>1200</v>
+      </c>
+      <c r="G23">
+        <f>D23*E23-F23</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <f>G23/F23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>110</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:D26" si="4">B24*10</f>
+        <v>1100</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <f>SUM($D$22:D24)</f>
+        <v>2300</v>
+      </c>
+      <c r="G24">
+        <f>D24*E24-F24</f>
+        <v>-100</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" ref="H24:H26" si="5">G24/F24</f>
+        <v>-4.3478260869565216E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <f>SUM($D$22:D25)</f>
+        <v>3300</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:G26" si="6">D25*E25-F25</f>
+        <v>-300</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="5"/>
+        <v>-9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>90</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <f>SUM($D$22:D26)</f>
+        <v>4200</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="6"/>
+        <v>-600</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>379</v>
+      </c>
+      <c r="B28" t="s">
+        <v>392</v>
+      </c>
+      <c r="C28" t="s">
+        <v>393</v>
+      </c>
+      <c r="D28" t="s">
+        <v>421</v>
+      </c>
+      <c r="E28" t="s">
+        <v>380</v>
+      </c>
+      <c r="F28" t="s">
+        <v>417</v>
+      </c>
+      <c r="G28" t="s">
+        <v>383</v>
+      </c>
+      <c r="H28" t="s">
+        <v>387</v>
+      </c>
+      <c r="I28" t="s">
+        <v>390</v>
+      </c>
+      <c r="J28" t="s">
+        <v>382</v>
+      </c>
+      <c r="K28" t="s">
+        <v>386</v>
+      </c>
+      <c r="L28" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>90</v>
+      </c>
+      <c r="C29">
+        <v>130</v>
+      </c>
+      <c r="D29" t="s">
+        <v>405</v>
+      </c>
+      <c r="E29" t="s">
+        <v>381</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>-10</v>
+      </c>
+      <c r="H29">
+        <f>-G29/10</f>
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>391</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="K29">
+        <f>-J29/10</f>
+        <v>-1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>407</v>
+      </c>
+      <c r="B32" t="s">
+        <v>423</v>
+      </c>
+      <c r="G32" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>426</v>
+      </c>
+      <c r="B33" t="s">
+        <v>429</v>
+      </c>
+      <c r="C33" t="s">
+        <v>427</v>
+      </c>
+      <c r="D33" t="s">
+        <v>428</v>
+      </c>
+      <c r="E33" t="s">
+        <v>430</v>
+      </c>
+      <c r="F33" t="s">
+        <v>431</v>
+      </c>
+      <c r="G33" t="s">
+        <v>432</v>
+      </c>
+      <c r="H33" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="B34">
+        <v>1.79</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1.5</v>
+      </c>
+      <c r="E34" s="21">
+        <f>A34/B34</f>
+        <v>0.65698324022346366</v>
+      </c>
+      <c r="F34" s="21">
+        <f>C34*E34</f>
+        <v>1.3139664804469273</v>
+      </c>
+      <c r="G34" s="21">
+        <f>D34*E34</f>
+        <v>0.98547486033519549</v>
+      </c>
+      <c r="H34" s="21">
+        <f>(F34-G34)/10</f>
+        <v>3.2849162011173182E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>379</v>
+      </c>
+      <c r="B35" t="s">
+        <v>392</v>
+      </c>
+      <c r="C35" t="s">
+        <v>393</v>
+      </c>
+      <c r="D35" t="s">
+        <v>421</v>
+      </c>
+      <c r="E35" t="s">
+        <v>380</v>
+      </c>
+      <c r="F35" t="s">
+        <v>417</v>
+      </c>
+      <c r="G35" t="s">
+        <v>383</v>
+      </c>
+      <c r="H35" t="s">
+        <v>387</v>
+      </c>
+      <c r="I35" t="s">
+        <v>390</v>
+      </c>
+      <c r="J35" t="s">
+        <v>382</v>
+      </c>
+      <c r="K35" t="s">
+        <v>386</v>
+      </c>
+      <c r="L35" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>414</v>
+      </c>
+      <c r="B39" t="s">
+        <v>413</v>
+      </c>
+      <c r="C39" t="s">
+        <v>408</v>
+      </c>
+      <c r="D39" t="s">
+        <v>409</v>
+      </c>
+      <c r="E39" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>407</v>
+      </c>
+      <c r="B40">
+        <v>512880</v>
+      </c>
+      <c r="C40">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="D40">
+        <v>1.02</v>
+      </c>
+      <c r="E40">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>411</v>
+      </c>
+      <c r="B41">
+        <v>512910</v>
+      </c>
+      <c r="C41">
+        <v>1.6720699999999999</v>
+      </c>
+      <c r="D41">
+        <v>1.27864</v>
+      </c>
+      <c r="E41">
+        <v>3.934E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>412</v>
+      </c>
+      <c r="B42">
+        <v>159905</v>
+      </c>
+      <c r="C42">
+        <v>2.8639999999999999</v>
+      </c>
+      <c r="D42">
+        <v>2.129</v>
+      </c>
+      <c r="E42">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>230</v>
+      </c>
+      <c r="B43">
+        <v>510310</v>
+      </c>
+      <c r="C43">
+        <v>2.6549999999999998</v>
+      </c>
+      <c r="D43">
+        <v>2.0550000000000002</v>
+      </c>
+      <c r="E43">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>407</v>
+      </c>
+      <c r="B46" t="s">
+        <v>392</v>
+      </c>
+      <c r="C46" t="s">
+        <v>393</v>
+      </c>
+      <c r="D46" t="s">
+        <v>421</v>
+      </c>
+      <c r="E46" t="s">
+        <v>380</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="G46" t="s">
+        <v>383</v>
+      </c>
+      <c r="H46" t="s">
+        <v>387</v>
+      </c>
+      <c r="I46" t="s">
+        <v>390</v>
+      </c>
+      <c r="J46" t="s">
+        <v>382</v>
+      </c>
+      <c r="K46" t="s">
+        <v>386</v>
+      </c>
+      <c r="L46" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>512880</v>
+      </c>
+      <c r="B47">
+        <v>1.02</v>
+      </c>
+      <c r="C47">
+        <v>1.32</v>
+      </c>
+      <c r="D47">
+        <v>1.32</v>
+      </c>
+      <c r="E47" t="s">
+        <v>381</v>
+      </c>
+      <c r="F47">
+        <v>5000</v>
+      </c>
+      <c r="G47">
+        <v>-0.03</v>
+      </c>
+      <c r="H47">
+        <v>1E-3</v>
+      </c>
+      <c r="I47" t="s">
+        <v>391</v>
+      </c>
+      <c r="J47">
+        <v>0.03</v>
+      </c>
+      <c r="K47">
+        <v>-1E-3</v>
+      </c>
+      <c r="L47" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>415</v>
+      </c>
+      <c r="B50" t="s">
+        <v>416</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="D50" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="B51" s="5">
+        <v>-0.01</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB2617F-E7B2-3448-BD12-7AD51884140D}">
   <dimension ref="A3:E75"/>
   <sheetViews>
@@ -1436,607 +5407,607 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C22" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B31" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
         <v>100</v>
       </c>
-      <c r="C44" t="s">
-        <v>105</v>
-      </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" t="s">
         <v>101</v>
       </c>
-      <c r="B45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" t="s">
-        <v>106</v>
-      </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" t="s">
         <v>112</v>
-      </c>
-      <c r="B50" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D51" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D53" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D54" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B60" s="12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D60" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D61" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D62" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E62" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D63" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" t="s">
+        <v>124</v>
+      </c>
+      <c r="E64" t="s">
         <v>127</v>
-      </c>
-      <c r="B64" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" t="s">
-        <v>128</v>
-      </c>
-      <c r="D64" t="s">
-        <v>129</v>
-      </c>
-      <c r="E64" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B65" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B70" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D70" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D71" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D72" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E72" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B73" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C73" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D73" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C74" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D74" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E74" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +6015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>

--- a/finance/calculator.xlsx
+++ b/finance/calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sun_xo/learn/py/finance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF9AFC8-0533-E943-ACD5-0D24CE9F189E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B870A8-AD07-4548-A98D-05083CF8F36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="500" windowWidth="22060" windowHeight="13620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13620" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="复利" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="网格" sheetId="7" r:id="rId5"/>
     <sheet name="期权" sheetId="4" r:id="rId6"/>
     <sheet name="房产计算" sheetId="1" r:id="rId7"/>
+    <sheet name="贝叶斯" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="threashold" localSheetId="2">指数阈值!$A$1:$H$59</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="497">
   <si>
     <t>Fv = Pv (1 + i) ^ n</t>
   </si>
@@ -1340,9 +1341,6 @@
     <t>委托金额(元)</t>
   </si>
   <si>
-    <t>https://legulegu.com/stockdata/sw-industry?industryCode=801193.SI</t>
-  </si>
-  <si>
     <t>ETF网格</t>
   </si>
   <si>
@@ -1368,18 +1366,229 @@
   </si>
   <si>
     <t>P下沿</t>
+  </si>
+  <si>
+    <t>委托股数(股)</t>
+  </si>
+  <si>
+    <t>SH510310</t>
+  </si>
+  <si>
+    <t>legulegu.com/stockdata/sw-industry?industryCode=801193.SI</t>
+  </si>
+  <si>
+    <t>指数</t>
+  </si>
+  <si>
+    <t>legulegu.com/stockdata/hs300-pb</t>
+  </si>
+  <si>
+    <t>即时卖1价</t>
+  </si>
+  <si>
+    <t>即时买1价</t>
+  </si>
+  <si>
+    <t>万顺转债</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>sh00985</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>搜特转债</t>
+  </si>
+  <si>
+    <t>累计股数</t>
+  </si>
+  <si>
+    <t>成本(元)</t>
+  </si>
+  <si>
+    <t>底部加仓</t>
+  </si>
+  <si>
+    <t>设条件单</t>
+  </si>
+  <si>
+    <t>执行后</t>
+  </si>
+  <si>
+    <t>改委托股数</t>
+  </si>
+  <si>
+    <t>10 -&gt; 30</t>
+  </si>
+  <si>
+    <t>(30-10)*4</t>
+  </si>
+  <si>
+    <t>&lt; 160 买80</t>
+  </si>
+  <si>
+    <t>p(B)=p(B|A)p(A)+p(B|Ᾱ)p(Ᾱ)</t>
+  </si>
+  <si>
+    <t>其中Ᾱ和A互斥，p(Ᾱ)=1-p(A)</t>
+  </si>
+  <si>
+    <t>p(B|A)*p(A)代表A,B同时发生</t>
+  </si>
+  <si>
+    <t>全概率公式</t>
+  </si>
+  <si>
+    <t>事件A发生的先验概率
+p(A)</t>
+  </si>
+  <si>
+    <t>事件A不发生
+的先验概率 
+p(Ᾱ) = 1 - p(A)</t>
+  </si>
+  <si>
+    <t>事件A发生时事件B发生的概率
+p (B|A)</t>
+  </si>
+  <si>
+    <t>事件A未发生时事件B发生的概率
+p(B|Ᾱ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事件B发生的概率
+p(B) = 
+p(B|A)p(A)+p(B|Ᾱ)p(Ᾱ) </t>
+  </si>
+  <si>
+    <t>事件A发生的后验概率
+p(A|B) =
+p(B|A)p(A)/p(B)</t>
+  </si>
+  <si>
+    <t>雍和宫灵验
+的先验概率</t>
+  </si>
+  <si>
+    <t>雍和宫不灵
+的先验概率</t>
+  </si>
+  <si>
+    <t>雍和宫灵验时
+某甲的升职概率</t>
+  </si>
+  <si>
+    <t>雍和宫不灵时
+某甲的升职概率</t>
+  </si>
+  <si>
+    <t>某甲的升职概率</t>
+  </si>
+  <si>
+    <t>雍和宫灵验的后验概率</t>
+  </si>
+  <si>
+    <t>0.15 -&gt; 0.22</t>
+  </si>
+  <si>
+    <t>某甲祈福后升职成功后雍和宫灵验的概率</t>
+  </si>
+  <si>
+    <t>某乙祈福后升职失败后雍和宫灵验的概率</t>
+  </si>
+  <si>
+    <t>雍和宫灵验时
+某乙不升职概率</t>
+  </si>
+  <si>
+    <t>雍和宫不灵时
+某乙不升职概率</t>
+  </si>
+  <si>
+    <t>0.22 -&gt; 0.10</t>
+  </si>
+  <si>
+    <t>携带HIV的先验概率</t>
+  </si>
+  <si>
+    <t>检测HIV为阳性的概率</t>
+  </si>
+  <si>
+    <t>不携带HIV的先验概率</t>
+  </si>
+  <si>
+    <t>检测为阳性后携带HIV的概率(后验概率)</t>
+  </si>
+  <si>
+    <t>携带者检测HIV为阳性的概率</t>
+  </si>
+  <si>
+    <t>非携带者检测为阳性的概率</t>
+  </si>
+  <si>
+    <t>案例1: 雍和宫灵验吗 - 事件A: 雍和宫灵验 事件B: 祈福后升职成功或失败</t>
+  </si>
+  <si>
+    <t>案例2: 某人检测HIV阳性 - 事件A: 携带HIV 事件B: 检测HIV阳性</t>
+  </si>
+  <si>
+    <t>第1次检测HIV阳性</t>
+  </si>
+  <si>
+    <t>第2次检测HIV阳性</t>
+  </si>
+  <si>
+    <t>某乙的不升职概率</t>
+  </si>
+  <si>
+    <t>案例3: 抓特务 - 事件A: 某人是间谍，事件B: 某人有嫌疑</t>
+  </si>
+  <si>
+    <t>某人是特务的先验概率</t>
+  </si>
+  <si>
+    <t>某人不是特务的先验概率</t>
+  </si>
+  <si>
+    <t>某人是特务且被怀疑的概率(真阳性)</t>
+  </si>
+  <si>
+    <t>某人不是特务却被怀疑的概率(假阳性)</t>
+  </si>
+  <si>
+    <t>某人被怀疑的概率</t>
+  </si>
+  <si>
+    <t>怀疑属实的概率(后验概率)</t>
+  </si>
+  <si>
+    <t>第一次被怀疑</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1408,6 +1617,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1432,11 +1649,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1469,8 +1687,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2083,10 +2306,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1488808B-A158-284F-9930-D604D6952601}">
-  <dimension ref="A3:F39"/>
+  <dimension ref="A3:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A10" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2512,35 +2735,122 @@
         <v>4047.1092455742</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B39">
         <f>1657.7 * 1.1^(2021-2011) * (1+(12-1)/120) / 0.8^(5-4)</f>
         <v>5867.2264663553979</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>445</v>
+      </c>
+      <c r="B41">
+        <v>1657.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>440</v>
+      </c>
+      <c r="B42">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>441</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>442</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>443</v>
+      </c>
+      <c r="B45" s="18">
+        <f>$B$41 * 1.1^($B$42-2011) * (1+($B$43-1)/120) / 0.8^(5-B44)</f>
+        <v>4729.6115637185512</v>
+      </c>
+      <c r="C45" s="18">
+        <f t="shared" ref="C45:F45" si="14">$B$41 * 1.1^($B$42-2011) * (1+($B$43-1)/120) / 0.8^(5-C44)</f>
+        <v>5912.0144546481888</v>
+      </c>
+      <c r="D45" s="18">
+        <f t="shared" si="14"/>
+        <v>7390.0180683102344</v>
+      </c>
+      <c r="E45" s="18">
+        <f t="shared" si="14"/>
+        <v>9237.5225853877928</v>
+      </c>
+      <c r="F45" s="18">
+        <f t="shared" si="14"/>
+        <v>11546.903231734739</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>444</v>
+      </c>
+      <c r="B46">
+        <v>5568</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="24">
+        <f>(B45-$B$46)/$B$46</f>
+        <v>-0.15057263582640962</v>
+      </c>
+      <c r="C47" s="24">
+        <f>(C45-$B$46)/$B$46</f>
+        <v>6.1784205216987929E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4150,7 +4460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14035F00-6F61-2846-A9B1-038887E13D80}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -4424,15 +4734,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDC7B8B-DB21-EB49-B4A8-8BEBC5ED15A7}">
-  <dimension ref="A2:L51"/>
+  <dimension ref="A2:M79"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -5008,7 +5318,7 @@
         <v>380</v>
       </c>
       <c r="F28" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="G28" t="s">
         <v>383</v>
@@ -5068,320 +5378,1034 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>407</v>
-      </c>
-      <c r="B32" t="s">
-        <v>423</v>
-      </c>
-      <c r="G32" t="s">
-        <v>425</v>
-      </c>
+      <c r="B32" s="23"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>435</v>
+      </c>
+      <c r="B33" t="s">
+        <v>425</v>
+      </c>
+      <c r="C33" t="s">
+        <v>428</v>
+      </c>
+      <c r="D33" t="s">
         <v>426</v>
       </c>
-      <c r="B33" t="s">
+      <c r="E33" t="s">
+        <v>427</v>
+      </c>
+      <c r="F33" t="s">
         <v>429</v>
       </c>
-      <c r="C33" t="s">
-        <v>427</v>
-      </c>
-      <c r="D33" t="s">
-        <v>428</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>430</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H33" t="s">
         <v>431</v>
       </c>
-      <c r="G33" t="s">
-        <v>432</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" t="s">
+        <v>407</v>
+      </c>
+      <c r="B34">
         <v>1.1759999999999999</v>
       </c>
-      <c r="B34">
+      <c r="C34" s="22">
         <v>1.79</v>
       </c>
-      <c r="C34">
+      <c r="D34" s="22">
         <v>2</v>
       </c>
-      <c r="D34">
+      <c r="E34" s="22">
         <v>1.5</v>
       </c>
-      <c r="E34" s="21">
-        <f>A34/B34</f>
+      <c r="F34" s="22">
+        <f>B34/C34</f>
         <v>0.65698324022346366</v>
       </c>
-      <c r="F34" s="21">
-        <f>C34*E34</f>
+      <c r="G34" s="22">
+        <f>D34*F34</f>
         <v>1.3139664804469273</v>
       </c>
-      <c r="G34" s="21">
-        <f>D34*E34</f>
+      <c r="H34" s="22">
+        <f>E34*F34</f>
         <v>0.98547486033519549</v>
       </c>
-      <c r="H34" s="21">
-        <f>(F34-G34)/10</f>
+      <c r="I34" s="22">
+        <f>(G34-H34)/10</f>
         <v>3.2849162011173182E-2</v>
+      </c>
+      <c r="J34" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>379</v>
-      </c>
-      <c r="B35" t="s">
-        <v>392</v>
-      </c>
-      <c r="C35" t="s">
-        <v>393</v>
-      </c>
-      <c r="D35" t="s">
-        <v>421</v>
-      </c>
-      <c r="E35" t="s">
-        <v>380</v>
-      </c>
-      <c r="F35" t="s">
-        <v>417</v>
-      </c>
-      <c r="G35" t="s">
-        <v>383</v>
-      </c>
-      <c r="H35" t="s">
-        <v>387</v>
-      </c>
-      <c r="I35" t="s">
-        <v>390</v>
+        <v>230</v>
+      </c>
+      <c r="B35">
+        <v>2.2919999999999998</v>
+      </c>
+      <c r="C35" s="22">
+        <v>1.58</v>
+      </c>
+      <c r="D35" s="22">
+        <v>1.78</v>
+      </c>
+      <c r="E35" s="22">
+        <v>1.4</v>
+      </c>
+      <c r="F35" s="22">
+        <f>B35/C35</f>
+        <v>1.4506329113924048</v>
+      </c>
+      <c r="G35" s="22">
+        <f>D35*F35</f>
+        <v>2.5821265822784807</v>
+      </c>
+      <c r="H35" s="22">
+        <f>E35*F35</f>
+        <v>2.0308860759493665</v>
+      </c>
+      <c r="I35" s="22">
+        <f>(G35-H35)/10</f>
+        <v>5.5124050632911412E-2</v>
       </c>
       <c r="J35" t="s">
-        <v>382</v>
-      </c>
-      <c r="K35" t="s">
-        <v>386</v>
-      </c>
-      <c r="L35" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
+      <c r="A37" t="s">
+        <v>186</v>
+      </c>
+      <c r="B37">
+        <v>1.51</v>
+      </c>
+      <c r="C37" s="22">
+        <v>10.49</v>
+      </c>
+      <c r="D37" s="22">
+        <v>9.5</v>
+      </c>
+      <c r="E37" s="22">
+        <v>12.5</v>
+      </c>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22">
+        <f>B37*C37/D37</f>
+        <v>1.6673578947368421</v>
+      </c>
+      <c r="H37" s="22">
+        <f>B37*C37/E37</f>
+        <v>1.2671920000000001</v>
+      </c>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="B39" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="C39" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="D39" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="E39" t="s">
-        <v>410</v>
+        <v>380</v>
+      </c>
+      <c r="F39" t="s">
+        <v>432</v>
+      </c>
+      <c r="G39" t="s">
+        <v>383</v>
+      </c>
+      <c r="H39" t="s">
+        <v>387</v>
+      </c>
+      <c r="I39" t="s">
+        <v>390</v>
+      </c>
+      <c r="J39" t="s">
+        <v>382</v>
+      </c>
+      <c r="K39" t="s">
+        <v>386</v>
+      </c>
+      <c r="L39" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>407</v>
-      </c>
-      <c r="B40">
-        <v>512880</v>
-      </c>
-      <c r="C40">
-        <v>1.3240000000000001</v>
-      </c>
-      <c r="D40">
-        <v>1.02</v>
-      </c>
-      <c r="E40">
-        <v>0.03</v>
+        <v>424</v>
+      </c>
+      <c r="B40" s="22">
+        <f>H34</f>
+        <v>0.98547486033519549</v>
+      </c>
+      <c r="C40" s="22">
+        <f>G34</f>
+        <v>1.3139664804469273</v>
+      </c>
+      <c r="D40" s="22">
+        <f>C40</f>
+        <v>1.3139664804469273</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="F40" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G40" s="22">
+        <f>-I34</f>
+        <v>-3.2849162011173182E-2</v>
+      </c>
+      <c r="H40" s="22">
+        <f>-G40/10</f>
+        <v>3.2849162011173182E-3</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="J40" s="22">
+        <f>I34</f>
+        <v>3.2849162011173182E-2</v>
+      </c>
+      <c r="K40" s="22">
+        <f>-J40/10</f>
+        <v>-3.2849162011173182E-3</v>
+      </c>
+      <c r="L40" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>411</v>
-      </c>
-      <c r="B41">
-        <v>512910</v>
-      </c>
-      <c r="C41">
-        <v>1.6720699999999999</v>
-      </c>
-      <c r="D41">
-        <v>1.27864</v>
-      </c>
-      <c r="E41">
-        <v>3.934E-2</v>
+        <v>433</v>
+      </c>
+      <c r="B41" s="22">
+        <f>H35</f>
+        <v>2.0308860759493665</v>
+      </c>
+      <c r="C41" s="22">
+        <f>G35</f>
+        <v>2.5821265822784807</v>
+      </c>
+      <c r="D41" s="22">
+        <f>C41</f>
+        <v>2.5821265822784807</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="F41" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G41" s="22">
+        <f>-I35</f>
+        <v>-5.5124050632911412E-2</v>
+      </c>
+      <c r="H41" s="22">
+        <f>-G41/10</f>
+        <v>5.5124050632911412E-3</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="J41" s="22">
+        <f>I35</f>
+        <v>5.5124050632911412E-2</v>
+      </c>
+      <c r="K41" s="22">
+        <f>-J41/10</f>
+        <v>-5.5124050632911412E-3</v>
+      </c>
+      <c r="L41" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>412</v>
-      </c>
-      <c r="B42">
-        <v>159905</v>
-      </c>
-      <c r="C42">
-        <v>2.8639999999999999</v>
-      </c>
-      <c r="D42">
-        <v>2.129</v>
-      </c>
-      <c r="E42">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>230</v>
-      </c>
-      <c r="B43">
-        <v>510310</v>
-      </c>
-      <c r="C43">
-        <v>2.6549999999999998</v>
-      </c>
-      <c r="D43">
-        <v>2.0550000000000002</v>
-      </c>
-      <c r="E43">
-        <v>0.06</v>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>414</v>
+      </c>
+      <c r="B44" t="s">
+        <v>413</v>
+      </c>
+      <c r="C44" t="s">
+        <v>408</v>
+      </c>
+      <c r="D44" t="s">
+        <v>409</v>
+      </c>
+      <c r="E44" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>420</v>
+        <v>407</v>
+      </c>
+      <c r="B45">
+        <v>512880</v>
+      </c>
+      <c r="C45">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="D45">
+        <v>1.02</v>
+      </c>
+      <c r="E45">
+        <v>0.03</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>411</v>
+      </c>
+      <c r="B46">
+        <v>512910</v>
+      </c>
+      <c r="C46">
+        <v>1.6720699999999999</v>
+      </c>
+      <c r="D46">
+        <v>1.27864</v>
+      </c>
+      <c r="E46">
+        <v>3.934E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>412</v>
+      </c>
+      <c r="B47">
+        <v>159905</v>
+      </c>
+      <c r="C47">
+        <v>2.8639999999999999</v>
+      </c>
+      <c r="D47">
+        <v>2.129</v>
+      </c>
+      <c r="E47">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48">
+        <v>510310</v>
+      </c>
+      <c r="C48">
+        <v>2.6549999999999998</v>
+      </c>
+      <c r="D48">
+        <v>2.0550000000000002</v>
+      </c>
+      <c r="E48">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>407</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B51" t="s">
         <v>392</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C51" t="s">
         <v>393</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D51" t="s">
         <v>421</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E51" t="s">
         <v>380</v>
       </c>
-      <c r="F46" s="20" t="s">
+      <c r="F51" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G51" t="s">
         <v>383</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H51" t="s">
         <v>387</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I51" t="s">
         <v>390</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J51" t="s">
         <v>382</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K51" t="s">
         <v>386</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L51" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>512880</v>
       </c>
-      <c r="B47">
+      <c r="B52">
         <v>1.02</v>
       </c>
-      <c r="C47">
+      <c r="C52">
         <v>1.32</v>
       </c>
-      <c r="D47">
+      <c r="D52">
         <v>1.32</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E52" t="s">
         <v>381</v>
       </c>
-      <c r="F47">
+      <c r="F52">
         <v>5000</v>
       </c>
-      <c r="G47">
+      <c r="G52">
         <v>-0.03</v>
       </c>
-      <c r="H47">
+      <c r="H52">
         <v>1E-3</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I52" t="s">
         <v>391</v>
       </c>
-      <c r="J47">
+      <c r="J52">
         <v>0.03</v>
       </c>
-      <c r="K47">
+      <c r="K52">
         <v>-1E-3</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L52" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>415</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B55" t="s">
         <v>416</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C55" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D55" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>1.3240000000000001</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B56" s="5">
         <v>-0.01</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C56" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>439</v>
+      </c>
+      <c r="B59">
+        <v>123012</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>355</v>
+      </c>
+      <c r="B60" t="s">
+        <v>374</v>
+      </c>
+      <c r="C60" t="s">
+        <v>417</v>
+      </c>
+      <c r="D60" t="s">
+        <v>447</v>
+      </c>
+      <c r="E60" t="s">
+        <v>375</v>
+      </c>
+      <c r="F60" t="s">
+        <v>448</v>
+      </c>
+      <c r="G60" t="s">
+        <v>384</v>
+      </c>
+      <c r="H60" t="s">
+        <v>385</v>
+      </c>
+      <c r="J60" t="s">
+        <v>449</v>
+      </c>
+      <c r="K60" t="s">
+        <v>417</v>
+      </c>
+      <c r="L60" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+      <c r="J61" t="s">
+        <v>450</v>
+      </c>
+      <c r="K61" t="s">
+        <v>455</v>
+      </c>
+      <c r="L61" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>190</v>
+      </c>
+      <c r="C62">
+        <v>30</v>
+      </c>
+      <c r="D62">
+        <f>C62*A62</f>
+        <v>30</v>
+      </c>
+      <c r="E62">
+        <f>B62*C62</f>
+        <v>5700</v>
+      </c>
+      <c r="F62">
+        <f>SUM($E$62:E62)</f>
+        <v>5700</v>
+      </c>
+      <c r="G62">
+        <f>B62*D62-F62</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <f>G62/F62</f>
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>451</v>
+      </c>
+      <c r="K62" t="s">
+        <v>452</v>
+      </c>
+      <c r="L62">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>180</v>
+      </c>
+      <c r="C63">
+        <v>30</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ref="D63:D65" si="7">C63*A63</f>
+        <v>60</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ref="E63:E65" si="8">B63*C63</f>
+        <v>5400</v>
+      </c>
+      <c r="F63">
+        <f>SUM($E$62:E63)</f>
+        <v>11100</v>
+      </c>
+      <c r="G63">
+        <f t="shared" ref="G63:G65" si="9">B63*D63-F63</f>
+        <v>-300</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" ref="H63:H65" si="10">G63/F63</f>
+        <v>-2.7027027027027029E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>170</v>
+      </c>
+      <c r="C64">
+        <v>30</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="8"/>
+        <v>5100</v>
+      </c>
+      <c r="F64">
+        <f>SUM($E$62:E64)</f>
+        <v>16200</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="9"/>
+        <v>-900</v>
+      </c>
+      <c r="H64" s="1">
+        <f t="shared" si="10"/>
+        <v>-5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>160</v>
+      </c>
+      <c r="C65">
+        <v>30</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="7"/>
+        <v>120</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="8"/>
+        <v>4800</v>
+      </c>
+      <c r="F65">
+        <f>SUM($E$62:E65)</f>
+        <v>21000</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="9"/>
+        <v>-1800</v>
+      </c>
+      <c r="H65" s="1">
+        <f t="shared" si="10"/>
+        <v>-8.5714285714285715E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>446</v>
+      </c>
+      <c r="B67">
+        <v>128100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>355</v>
+      </c>
+      <c r="B68" t="s">
+        <v>374</v>
+      </c>
+      <c r="C68" t="s">
+        <v>417</v>
+      </c>
+      <c r="D68" t="s">
+        <v>447</v>
+      </c>
+      <c r="E68" t="s">
+        <v>375</v>
+      </c>
+      <c r="F68" t="s">
+        <v>448</v>
+      </c>
+      <c r="G68" t="s">
+        <v>384</v>
+      </c>
+      <c r="H68" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>115</v>
+      </c>
+      <c r="C70">
+        <v>30</v>
+      </c>
+      <c r="D70">
+        <f>SUM($C$70:C70)</f>
+        <v>30</v>
+      </c>
+      <c r="E70">
+        <f>B70*C70</f>
+        <v>3450</v>
+      </c>
+      <c r="F70">
+        <f>SUM($E$70:E70)</f>
+        <v>3450</v>
+      </c>
+      <c r="G70">
+        <f>B70*D70-F70</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <f>G70/F70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71">
+        <v>110</v>
+      </c>
+      <c r="C71">
+        <v>30</v>
+      </c>
+      <c r="D71">
+        <f>SUM($C$70:C71)</f>
+        <v>60</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ref="E71:E73" si="11">B71*C71</f>
+        <v>3300</v>
+      </c>
+      <c r="F71">
+        <f>SUM($E$70:E71)</f>
+        <v>6750</v>
+      </c>
+      <c r="G71">
+        <f t="shared" ref="G71:G73" si="12">B71*D71-F71</f>
+        <v>-150</v>
+      </c>
+      <c r="H71" s="1">
+        <f t="shared" ref="H71:H73" si="13">G71/F71</f>
+        <v>-2.2222222222222223E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <v>105</v>
+      </c>
+      <c r="C72">
+        <v>30</v>
+      </c>
+      <c r="D72">
+        <f>SUM($C$70:C72)</f>
+        <v>90</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="11"/>
+        <v>3150</v>
+      </c>
+      <c r="F72">
+        <f>SUM($E$70:E72)</f>
+        <v>9900</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="12"/>
+        <v>-450</v>
+      </c>
+      <c r="H72" s="1">
+        <f t="shared" si="13"/>
+        <v>-4.5454545454545456E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <v>100</v>
+      </c>
+      <c r="C73">
+        <v>30</v>
+      </c>
+      <c r="D73">
+        <f>SUM($C$70:C73)</f>
+        <v>120</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="F73">
+        <f>SUM($E$70:E73)</f>
+        <v>12900</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="12"/>
+        <v>-900</v>
+      </c>
+      <c r="H73" s="1">
+        <f t="shared" si="13"/>
+        <v>-6.9767441860465115E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H74" s="1"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>379</v>
+      </c>
+      <c r="B76" t="s">
+        <v>392</v>
+      </c>
+      <c r="C76" t="s">
+        <v>393</v>
+      </c>
+      <c r="D76" t="s">
+        <v>421</v>
+      </c>
+      <c r="E76" t="s">
+        <v>380</v>
+      </c>
+      <c r="F76" t="s">
+        <v>432</v>
+      </c>
+      <c r="G76" t="s">
+        <v>382</v>
+      </c>
+      <c r="H76" t="s">
+        <v>386</v>
+      </c>
+      <c r="I76" t="s">
+        <v>388</v>
+      </c>
+      <c r="J76" t="s">
+        <v>383</v>
+      </c>
+      <c r="K76" t="s">
+        <v>387</v>
+      </c>
+      <c r="L76" t="s">
+        <v>390</v>
+      </c>
+      <c r="M76" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>110038</v>
+      </c>
+      <c r="B77">
+        <v>115</v>
+      </c>
+      <c r="C77">
+        <v>155</v>
+      </c>
+      <c r="D77">
+        <v>155</v>
+      </c>
+      <c r="E77" t="s">
+        <v>381</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77">
+        <v>10</v>
+      </c>
+      <c r="H77">
+        <f>-G77/10</f>
+        <v>-1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>438</v>
+      </c>
+      <c r="J77">
+        <v>-10</v>
+      </c>
+      <c r="K77">
+        <f>-J77/10</f>
+        <v>1</v>
+      </c>
+      <c r="L77" t="s">
+        <v>437</v>
+      </c>
+      <c r="M77">
+        <f t="shared" ref="M77:M79" si="14">(B77+C77-10)*2*10</f>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>123012</v>
+      </c>
+      <c r="B78">
+        <v>160</v>
+      </c>
+      <c r="C78">
+        <v>200</v>
+      </c>
+      <c r="D78">
+        <v>200</v>
+      </c>
+      <c r="E78" t="s">
+        <v>381</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78">
+        <v>10</v>
+      </c>
+      <c r="H78">
+        <f>-G78/10</f>
+        <v>-1</v>
+      </c>
+      <c r="I78" t="s">
+        <v>438</v>
+      </c>
+      <c r="J78">
+        <v>-10</v>
+      </c>
+      <c r="K78">
+        <f>-J78/10</f>
+        <v>1</v>
+      </c>
+      <c r="L78" t="s">
+        <v>437</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="14"/>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>128100</v>
+      </c>
+      <c r="B79">
+        <v>100</v>
+      </c>
+      <c r="C79">
+        <v>120</v>
+      </c>
+      <c r="D79">
+        <f>C79</f>
+        <v>120</v>
+      </c>
+      <c r="E79" t="s">
+        <v>381</v>
+      </c>
+      <c r="F79">
+        <v>30</v>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+      <c r="H79">
+        <f>-G79/10</f>
+        <v>-0.5</v>
+      </c>
+      <c r="I79" t="s">
+        <v>438</v>
+      </c>
+      <c r="J79">
+        <v>-5</v>
+      </c>
+      <c r="K79">
+        <f>-J79/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="L79" t="s">
+        <v>437</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="14"/>
+        <v>4200</v>
       </c>
     </row>
   </sheetData>
@@ -6019,7 +7043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -6401,4 +7425,319 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5A4E00-D05A-8A48-9385-B4D2154494C1}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="B9">
+        <v>0.15</v>
+      </c>
+      <c r="C9">
+        <f>1-B9</f>
+        <v>0.85</v>
+      </c>
+      <c r="D9">
+        <v>0.8</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <f>B9*D9+C9*E9</f>
+        <v>0.54499999999999993</v>
+      </c>
+      <c r="G9" s="22">
+        <f>D9*B9/F9</f>
+        <v>0.22018348623853212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B11" s="22">
+        <f>G9</f>
+        <v>0.22018348623853212</v>
+      </c>
+      <c r="C11" s="22">
+        <f>1-B11</f>
+        <v>0.77981651376146788</v>
+      </c>
+      <c r="D11">
+        <f>1-D9</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="E11">
+        <f>1-E9</f>
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="22">
+        <f>B11*D11+C11*E11</f>
+        <v>0.43394495412844036</v>
+      </c>
+      <c r="G11" s="22">
+        <f>B11*D11/F11</f>
+        <v>0.1014799154334038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="25" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="F14" t="s">
+        <v>479</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="C15" s="5">
+        <f>1-B15</f>
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="F15" s="5">
+        <f>B15*D15+C15*E15</f>
+        <v>1.9989000000000001E-4</v>
+      </c>
+      <c r="G15" s="5">
+        <f>B15*D15/F15</f>
+        <v>0.49977487618190003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B16" s="5">
+        <f>G15</f>
+        <v>0.49977487618190003</v>
+      </c>
+      <c r="C16" s="5">
+        <f>1-B16</f>
+        <v>0.50022512381809991</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1E-4</v>
+      </c>
+      <c r="F16" s="5">
+        <f>B16*D16+C16*E16</f>
+        <v>0.4993251238180999</v>
+      </c>
+      <c r="G16" s="5">
+        <f>B16*D16/F16</f>
+        <v>0.99989981975671627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="C20" s="5">
+        <f>1-B20</f>
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F20" s="5">
+        <f>B20*D20+C20*E20</f>
+        <v>5.0282E-2</v>
+      </c>
+      <c r="G20" s="5">
+        <f>B20*C20/F20</f>
+        <v>5.9645598822640304E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/finance/calculator.xlsx
+++ b/finance/calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sun_xo/learn/py/finance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B870A8-AD07-4548-A98D-05083CF8F36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75467C1B-5300-5E41-9DA0-830C7C5BD910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13620" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1600" yWindow="500" windowWidth="25600" windowHeight="13420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="复利" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="497">
   <si>
     <t>Fv = Pv (1 + i) ^ n</t>
   </si>
@@ -2308,7 +2308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1488808B-A158-284F-9930-D604D6952601}">
   <dimension ref="A3:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -4458,16 +4458,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14035F00-6F61-2846-A9B1-038887E13D80}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="133" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
@@ -4727,6 +4727,78 @@
         <v>0.15910493827160485</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>100</v>
+      </c>
+      <c r="B22">
+        <f>ROUND(20000/A22, -1)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>110</v>
+      </c>
+      <c r="B23">
+        <f>ROUND(20000/A23, -1)</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>120</v>
+      </c>
+      <c r="B24">
+        <f>ROUND(20000/A24, -1)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>130</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:B29" si="0">ROUND(20000/A25, -1)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>140</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>150</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>160</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>170</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4734,10 +4806,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDC7B8B-DB21-EB49-B4A8-8BEBC5ED15A7}">
-  <dimension ref="A2:M79"/>
+  <dimension ref="A2:M87"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView topLeftCell="A44" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5867,213 +5939,213 @@
       <c r="B57" s="5"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H58" s="1"/>
+      <c r="A58" t="s">
+        <v>439</v>
+      </c>
+      <c r="B58">
+        <v>113027</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>439</v>
-      </c>
-      <c r="B59">
-        <v>123012</v>
+        <v>355</v>
+      </c>
+      <c r="B59" t="s">
+        <v>374</v>
+      </c>
+      <c r="C59" t="s">
+        <v>417</v>
+      </c>
+      <c r="D59" t="s">
+        <v>447</v>
+      </c>
+      <c r="E59" t="s">
+        <v>375</v>
+      </c>
+      <c r="F59" t="s">
+        <v>448</v>
+      </c>
+      <c r="G59" t="s">
+        <v>384</v>
+      </c>
+      <c r="H59" t="s">
+        <v>385</v>
+      </c>
+      <c r="J59" t="s">
+        <v>449</v>
+      </c>
+      <c r="K59" t="s">
+        <v>417</v>
+      </c>
+      <c r="L59" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>355</v>
-      </c>
-      <c r="B60" t="s">
-        <v>374</v>
-      </c>
-      <c r="C60" t="s">
-        <v>417</v>
-      </c>
-      <c r="D60" t="s">
-        <v>447</v>
-      </c>
-      <c r="E60" t="s">
-        <v>375</v>
-      </c>
-      <c r="F60" t="s">
-        <v>448</v>
-      </c>
-      <c r="G60" t="s">
-        <v>384</v>
-      </c>
-      <c r="H60" t="s">
-        <v>385</v>
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>170</v>
       </c>
       <c r="J60" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K60" t="s">
-        <v>417</v>
+        <v>455</v>
       </c>
       <c r="L60" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>160</v>
+      </c>
+      <c r="C61">
+        <v>40</v>
+      </c>
+      <c r="D61">
+        <f>C61*A61</f>
+        <v>40</v>
+      </c>
+      <c r="E61">
+        <f>B61*C61</f>
+        <v>6400</v>
+      </c>
+      <c r="F61">
+        <f>SUM($E61:E$61)</f>
+        <v>6400</v>
+      </c>
+      <c r="G61">
+        <f>B61*D61-F61</f>
         <v>0</v>
       </c>
-      <c r="B61">
-        <v>200</v>
+      <c r="H61" s="1">
+        <f>G61/F61</f>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K61" t="s">
-        <v>455</v>
-      </c>
-      <c r="L61" t="s">
-        <v>454</v>
+        <v>452</v>
+      </c>
+      <c r="L61">
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="C62">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D62">
-        <f>C62*A62</f>
-        <v>30</v>
+        <f t="shared" ref="D62:D64" si="7">C62*A62</f>
+        <v>80</v>
       </c>
       <c r="E62">
-        <f>B62*C62</f>
-        <v>5700</v>
+        <f t="shared" ref="E62:E64" si="8">B62*C62</f>
+        <v>6000</v>
       </c>
       <c r="F62">
-        <f>SUM($E$62:E62)</f>
-        <v>5700</v>
+        <f>SUM($E$61:E62)</f>
+        <v>12400</v>
       </c>
       <c r="G62">
-        <f>B62*D62-F62</f>
-        <v>0</v>
+        <f t="shared" ref="G62:G64" si="9">B62*D62-F62</f>
+        <v>-400</v>
       </c>
       <c r="H62" s="1">
-        <f>G62/F62</f>
-        <v>0</v>
-      </c>
-      <c r="J62" t="s">
-        <v>451</v>
-      </c>
-      <c r="K62" t="s">
-        <v>452</v>
-      </c>
-      <c r="L62">
-        <v>30</v>
+        <f t="shared" ref="H62:H64" si="10">G62/F62</f>
+        <v>-3.2258064516129031E-2</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B63">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="C63">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D63">
-        <f t="shared" ref="D63:D65" si="7">C63*A63</f>
-        <v>60</v>
+        <f t="shared" si="7"/>
+        <v>120</v>
       </c>
       <c r="E63">
-        <f t="shared" ref="E63:E65" si="8">B63*C63</f>
-        <v>5400</v>
+        <f t="shared" si="8"/>
+        <v>5600</v>
       </c>
       <c r="F63">
-        <f>SUM($E$62:E63)</f>
-        <v>11100</v>
+        <f>SUM($E$61:E63)</f>
+        <v>18000</v>
       </c>
       <c r="G63">
-        <f t="shared" ref="G63:G65" si="9">B63*D63-F63</f>
-        <v>-300</v>
+        <f t="shared" si="9"/>
+        <v>-1200</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" ref="H63:H65" si="10">G63/F63</f>
-        <v>-2.7027027027027029E-2</v>
+        <f t="shared" si="10"/>
+        <v>-6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B64">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="C64">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D64">
         <f t="shared" si="7"/>
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="E64">
         <f t="shared" si="8"/>
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="F64">
-        <f>SUM($E$62:E64)</f>
-        <v>16200</v>
+        <f>SUM($E$61:E64)</f>
+        <v>23200</v>
       </c>
       <c r="G64">
         <f t="shared" si="9"/>
-        <v>-900</v>
+        <v>-2400</v>
       </c>
       <c r="H64" s="1">
         <f t="shared" si="10"/>
-        <v>-5.5555555555555552E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>4</v>
-      </c>
-      <c r="B65">
-        <v>160</v>
-      </c>
-      <c r="C65">
-        <v>30</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="7"/>
-        <v>120</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="8"/>
-        <v>4800</v>
-      </c>
-      <c r="F65">
-        <f>SUM($E$62:E65)</f>
-        <v>21000</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="9"/>
-        <v>-1800</v>
-      </c>
-      <c r="H65" s="1">
-        <f t="shared" si="10"/>
-        <v>-8.5714285714285715E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-0.10344827586206896</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B67">
-        <v>128100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+        <v>123012</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>355</v>
       </c>
@@ -6098,36 +6170,54 @@
       <c r="H68" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J68" t="s">
+        <v>449</v>
+      </c>
+      <c r="K68" t="s">
+        <v>417</v>
+      </c>
+      <c r="L68" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0</v>
       </c>
       <c r="B69">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="J69" t="s">
+        <v>450</v>
+      </c>
+      <c r="K69" t="s">
+        <v>455</v>
+      </c>
+      <c r="L69" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1</v>
       </c>
       <c r="B70">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="C70">
         <v>30</v>
       </c>
       <c r="D70">
-        <f>SUM($C$70:C70)</f>
+        <f>C70*A70</f>
         <v>30</v>
       </c>
       <c r="E70">
         <f>B70*C70</f>
-        <v>3450</v>
+        <v>5700</v>
       </c>
       <c r="F70">
         <f>SUM($E$70:E70)</f>
-        <v>3450</v>
+        <v>5700</v>
       </c>
       <c r="G70">
         <f>B70*D70-F70</f>
@@ -6137,274 +6227,452 @@
         <f>G70/F70</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J70" t="s">
+        <v>451</v>
+      </c>
+      <c r="K70" t="s">
+        <v>452</v>
+      </c>
+      <c r="L70">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2</v>
       </c>
       <c r="B71">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="C71">
         <v>30</v>
       </c>
       <c r="D71">
-        <f>SUM($C$70:C71)</f>
+        <f t="shared" ref="D71:D73" si="11">C71*A71</f>
         <v>60</v>
       </c>
       <c r="E71">
-        <f t="shared" ref="E71:E73" si="11">B71*C71</f>
-        <v>3300</v>
+        <f t="shared" ref="E71:E73" si="12">B71*C71</f>
+        <v>5400</v>
       </c>
       <c r="F71">
         <f>SUM($E$70:E71)</f>
-        <v>6750</v>
+        <v>11100</v>
       </c>
       <c r="G71">
-        <f t="shared" ref="G71:G73" si="12">B71*D71-F71</f>
-        <v>-150</v>
+        <f t="shared" ref="G71:G73" si="13">B71*D71-F71</f>
+        <v>-300</v>
       </c>
       <c r="H71" s="1">
-        <f t="shared" ref="H71:H73" si="13">G71/F71</f>
-        <v>-2.2222222222222223E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H71:H73" si="14">G71/F71</f>
+        <v>-2.7027027027027029E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>3</v>
       </c>
       <c r="B72">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="C72">
         <v>30</v>
       </c>
       <c r="D72">
-        <f>SUM($C$70:C72)</f>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="E72">
-        <f t="shared" si="11"/>
-        <v>3150</v>
+        <f t="shared" si="12"/>
+        <v>5100</v>
       </c>
       <c r="F72">
         <f>SUM($E$70:E72)</f>
-        <v>9900</v>
+        <v>16200</v>
       </c>
       <c r="G72">
-        <f t="shared" si="12"/>
-        <v>-450</v>
+        <f t="shared" si="13"/>
+        <v>-900</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" si="13"/>
-        <v>-4.5454545454545456E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="14"/>
+        <v>-5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4</v>
       </c>
       <c r="B73">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="C73">
         <v>30</v>
       </c>
       <c r="D73">
-        <f>SUM($C$70:C73)</f>
+        <f t="shared" si="11"/>
         <v>120</v>
       </c>
       <c r="E73">
-        <f t="shared" si="11"/>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>4800</v>
       </c>
       <c r="F73">
         <f>SUM($E$70:E73)</f>
+        <v>21000</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="13"/>
+        <v>-1800</v>
+      </c>
+      <c r="H73" s="1">
+        <f t="shared" si="14"/>
+        <v>-8.5714285714285715E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>446</v>
+      </c>
+      <c r="B75">
+        <v>128100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>355</v>
+      </c>
+      <c r="B76" t="s">
+        <v>374</v>
+      </c>
+      <c r="C76" t="s">
+        <v>417</v>
+      </c>
+      <c r="D76" t="s">
+        <v>447</v>
+      </c>
+      <c r="E76" t="s">
+        <v>375</v>
+      </c>
+      <c r="F76" t="s">
+        <v>448</v>
+      </c>
+      <c r="G76" t="s">
+        <v>384</v>
+      </c>
+      <c r="H76" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>115</v>
+      </c>
+      <c r="C78">
+        <v>30</v>
+      </c>
+      <c r="D78">
+        <f>SUM($C$78:C78)</f>
+        <v>30</v>
+      </c>
+      <c r="E78">
+        <f>B78*C78</f>
+        <v>3450</v>
+      </c>
+      <c r="F78">
+        <f>SUM($E$78:E78)</f>
+        <v>3450</v>
+      </c>
+      <c r="G78">
+        <f>B78*D78-F78</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="1">
+        <f>G78/F78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <v>110</v>
+      </c>
+      <c r="C79">
+        <v>30</v>
+      </c>
+      <c r="D79">
+        <f>SUM($C$78:C79)</f>
+        <v>60</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ref="E79:E81" si="15">B79*C79</f>
+        <v>3300</v>
+      </c>
+      <c r="F79">
+        <f>SUM($E$78:E79)</f>
+        <v>6750</v>
+      </c>
+      <c r="G79">
+        <f t="shared" ref="G79:G81" si="16">B79*D79-F79</f>
+        <v>-150</v>
+      </c>
+      <c r="H79" s="1">
+        <f t="shared" ref="H79:H81" si="17">G79/F79</f>
+        <v>-2.2222222222222223E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>30</v>
+      </c>
+      <c r="D80">
+        <f>SUM($C$78:C80)</f>
+        <v>90</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="15"/>
+        <v>3150</v>
+      </c>
+      <c r="F80">
+        <f>SUM($E$78:E80)</f>
+        <v>9900</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="16"/>
+        <v>-450</v>
+      </c>
+      <c r="H80" s="1">
+        <f t="shared" si="17"/>
+        <v>-4.5454545454545456E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="B81">
+        <v>100</v>
+      </c>
+      <c r="C81">
+        <v>30</v>
+      </c>
+      <c r="D81">
+        <f>SUM($C$78:C81)</f>
+        <v>120</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="15"/>
+        <v>3000</v>
+      </c>
+      <c r="F81">
+        <f>SUM($E$78:E81)</f>
         <v>12900</v>
       </c>
-      <c r="G73">
-        <f t="shared" si="12"/>
+      <c r="G81">
+        <f t="shared" si="16"/>
         <v>-900</v>
       </c>
-      <c r="H73" s="1">
-        <f t="shared" si="13"/>
+      <c r="H81" s="1">
+        <f t="shared" si="17"/>
         <v>-6.9767441860465115E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H74" s="1"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H82" s="1"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>379</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B84" t="s">
         <v>392</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C84" t="s">
         <v>393</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D84" t="s">
         <v>421</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E84" t="s">
         <v>380</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F84" t="s">
         <v>432</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G84" t="s">
         <v>382</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H84" t="s">
         <v>386</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I84" t="s">
         <v>388</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J84" t="s">
         <v>383</v>
       </c>
-      <c r="K76" t="s">
+      <c r="K84" t="s">
         <v>387</v>
       </c>
-      <c r="L76" t="s">
+      <c r="L84" t="s">
         <v>390</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M84" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>110038</v>
-      </c>
-      <c r="B77">
-        <v>115</v>
-      </c>
-      <c r="C77">
-        <v>155</v>
-      </c>
-      <c r="D77">
-        <v>155</v>
-      </c>
-      <c r="E77" t="s">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>113027</v>
+      </c>
+      <c r="B85">
+        <v>130</v>
+      </c>
+      <c r="C85">
+        <v>170</v>
+      </c>
+      <c r="D85">
+        <v>170</v>
+      </c>
+      <c r="E85" t="s">
         <v>381</v>
       </c>
-      <c r="F77">
+      <c r="F85">
+        <v>30</v>
+      </c>
+      <c r="G85">
         <v>10</v>
       </c>
-      <c r="G77">
+      <c r="H85">
+        <f>-G85/10</f>
+        <v>-1</v>
+      </c>
+      <c r="I85" t="s">
+        <v>438</v>
+      </c>
+      <c r="J85">
+        <v>-10</v>
+      </c>
+      <c r="K85">
+        <f>-J85/10</f>
+        <v>1</v>
+      </c>
+      <c r="L85" t="s">
+        <v>437</v>
+      </c>
+      <c r="M85">
+        <f t="shared" ref="M85:M87" si="18">(B85+C85-10)*2*10</f>
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>123012</v>
+      </c>
+      <c r="B86">
+        <v>160</v>
+      </c>
+      <c r="C86">
+        <v>200</v>
+      </c>
+      <c r="D86">
+        <v>200</v>
+      </c>
+      <c r="E86" t="s">
+        <v>381</v>
+      </c>
+      <c r="F86">
+        <v>30</v>
+      </c>
+      <c r="G86">
         <v>10</v>
       </c>
-      <c r="H77">
-        <f>-G77/10</f>
+      <c r="H86">
+        <f>-G86/10</f>
         <v>-1</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I86" t="s">
         <v>438</v>
       </c>
-      <c r="J77">
+      <c r="J86">
         <v>-10</v>
       </c>
-      <c r="K77">
-        <f>-J77/10</f>
+      <c r="K86">
+        <f>-J86/10</f>
         <v>1</v>
       </c>
-      <c r="L77" t="s">
+      <c r="L86" t="s">
         <v>437</v>
       </c>
-      <c r="M77">
-        <f t="shared" ref="M77:M79" si="14">(B77+C77-10)*2*10</f>
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>123012</v>
-      </c>
-      <c r="B78">
-        <v>160</v>
-      </c>
-      <c r="C78">
-        <v>200</v>
-      </c>
-      <c r="D78">
-        <v>200</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="M86">
+        <f t="shared" si="18"/>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>128100</v>
+      </c>
+      <c r="B87">
+        <v>100</v>
+      </c>
+      <c r="C87">
+        <v>120</v>
+      </c>
+      <c r="D87">
+        <f>C87</f>
+        <v>120</v>
+      </c>
+      <c r="E87" t="s">
         <v>381</v>
       </c>
-      <c r="F78">
-        <v>10</v>
-      </c>
-      <c r="G78">
-        <v>10</v>
-      </c>
-      <c r="H78">
-        <f>-G78/10</f>
-        <v>-1</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="F87">
+        <v>30</v>
+      </c>
+      <c r="G87">
+        <v>5</v>
+      </c>
+      <c r="H87">
+        <f>-G87/10</f>
+        <v>-0.5</v>
+      </c>
+      <c r="I87" t="s">
         <v>438</v>
       </c>
-      <c r="J78">
-        <v>-10</v>
-      </c>
-      <c r="K78">
-        <f>-J78/10</f>
-        <v>1</v>
-      </c>
-      <c r="L78" t="s">
+      <c r="J87">
+        <v>-5</v>
+      </c>
+      <c r="K87">
+        <f>-J87/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="L87" t="s">
         <v>437</v>
       </c>
-      <c r="M78">
-        <f t="shared" si="14"/>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>128100</v>
-      </c>
-      <c r="B79">
-        <v>100</v>
-      </c>
-      <c r="C79">
-        <v>120</v>
-      </c>
-      <c r="D79">
-        <f>C79</f>
-        <v>120</v>
-      </c>
-      <c r="E79" t="s">
-        <v>381</v>
-      </c>
-      <c r="F79">
-        <v>30</v>
-      </c>
-      <c r="G79">
-        <v>5</v>
-      </c>
-      <c r="H79">
-        <f>-G79/10</f>
-        <v>-0.5</v>
-      </c>
-      <c r="I79" t="s">
-        <v>438</v>
-      </c>
-      <c r="J79">
-        <v>-5</v>
-      </c>
-      <c r="K79">
-        <f>-J79/10</f>
-        <v>0.5</v>
-      </c>
-      <c r="L79" t="s">
-        <v>437</v>
-      </c>
-      <c r="M79">
-        <f t="shared" si="14"/>
+      <c r="M87">
+        <f t="shared" si="18"/>
         <v>4200</v>
       </c>
     </row>
@@ -7431,8 +7699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5A4E00-D05A-8A48-9385-B4D2154494C1}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
